--- a/attendancetracker_updated.xlsx
+++ b/attendancetracker_updated.xlsx
@@ -4396,24 +4396,16 @@
       <c r="G40" s="170" t="n"/>
       <c r="H40" s="405" t="n"/>
       <c r="I40" s="404" t="n"/>
-      <c r="J40" s="171" t="inlineStr">
-        <is>
-          <t>Holiday Pay</t>
-        </is>
-      </c>
+      <c r="J40" s="171" t="n"/>
       <c r="K40" s="405" t="n"/>
       <c r="L40" s="405" t="n"/>
       <c r="M40" s="404" t="n"/>
-      <c r="N40" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N40" s="170" t="n"/>
       <c r="O40" s="405" t="n"/>
       <c r="P40" s="404" t="n"/>
       <c r="Q40" s="37" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 09:00-19:15 Submit Date: 2024-02-18, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+          <t>US Absent Unplanned 09:00-19:15</t>
         </is>
       </c>
       <c r="R40" s="38" t="n"/>
@@ -4454,24 +4446,16 @@
       <c r="G41" s="170" t="n"/>
       <c r="H41" s="405" t="n"/>
       <c r="I41" s="404" t="n"/>
-      <c r="J41" s="171" t="inlineStr">
-        <is>
-          <t>Holiday Pay</t>
-        </is>
-      </c>
+      <c r="J41" s="171" t="n"/>
       <c r="K41" s="405" t="n"/>
       <c r="L41" s="405" t="n"/>
       <c r="M41" s="404" t="n"/>
-      <c r="N41" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N41" s="170" t="n"/>
       <c r="O41" s="405" t="n"/>
       <c r="P41" s="404" t="n"/>
       <c r="Q41" s="132" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 09:00-19:15 Submit Date: 2024-02-18, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+          <t>US Absent Unplanned 09:00-19:15</t>
         </is>
       </c>
       <c r="R41" s="133" t="n"/>
@@ -4512,24 +4496,16 @@
       <c r="G42" s="170" t="n"/>
       <c r="H42" s="405" t="n"/>
       <c r="I42" s="404" t="n"/>
-      <c r="J42" s="171" t="inlineStr">
-        <is>
-          <t>Holiday Pay</t>
-        </is>
-      </c>
+      <c r="J42" s="171" t="n"/>
       <c r="K42" s="405" t="n"/>
       <c r="L42" s="405" t="n"/>
       <c r="M42" s="404" t="n"/>
-      <c r="N42" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N42" s="170" t="n"/>
       <c r="O42" s="405" t="n"/>
       <c r="P42" s="404" t="n"/>
       <c r="Q42" s="135" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 09:00-19:15 Submit Date: 2024-02-18, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+          <t>US Absent Unplanned 09:00-19:15</t>
         </is>
       </c>
       <c r="R42" s="40" t="n"/>
@@ -4620,24 +4596,16 @@
       <c r="G44" s="170" t="n"/>
       <c r="H44" s="405" t="n"/>
       <c r="I44" s="404" t="n"/>
-      <c r="J44" s="171" t="inlineStr">
-        <is>
-          <t>Holiday Pay</t>
-        </is>
-      </c>
+      <c r="J44" s="171" t="n"/>
       <c r="K44" s="405" t="n"/>
       <c r="L44" s="405" t="n"/>
       <c r="M44" s="404" t="n"/>
-      <c r="N44" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N44" s="170" t="n"/>
       <c r="O44" s="405" t="n"/>
       <c r="P44" s="404" t="n"/>
       <c r="Q44" s="135" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 09:00-19:15 Submit Date: 2024-02-18, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+          <t>US Absent Unplanned 09:00-19:15</t>
         </is>
       </c>
       <c r="R44" s="40" t="n"/>
@@ -4678,24 +4646,16 @@
       <c r="G45" s="170" t="n"/>
       <c r="H45" s="405" t="n"/>
       <c r="I45" s="404" t="n"/>
-      <c r="J45" s="171" t="inlineStr">
-        <is>
-          <t>Holiday Pay</t>
-        </is>
-      </c>
+      <c r="J45" s="171" t="n"/>
       <c r="K45" s="405" t="n"/>
       <c r="L45" s="405" t="n"/>
       <c r="M45" s="404" t="n"/>
-      <c r="N45" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N45" s="170" t="n"/>
       <c r="O45" s="405" t="n"/>
       <c r="P45" s="404" t="n"/>
       <c r="Q45" s="37" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 09:00-19:15 Submit Date: 2024-02-26, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+          <t>US Absent Unplanned 09:00-19:15</t>
         </is>
       </c>
       <c r="R45" s="38" t="n"/>
@@ -4736,24 +4696,16 @@
       <c r="G46" s="170" t="n"/>
       <c r="H46" s="405" t="n"/>
       <c r="I46" s="404" t="n"/>
-      <c r="J46" s="171" t="inlineStr">
-        <is>
-          <t>PTO</t>
-        </is>
-      </c>
+      <c r="J46" s="171" t="n"/>
       <c r="K46" s="405" t="n"/>
       <c r="L46" s="405" t="n"/>
       <c r="M46" s="404" t="n"/>
-      <c r="N46" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N46" s="170" t="n"/>
       <c r="O46" s="405" t="n"/>
       <c r="P46" s="404" t="n"/>
       <c r="Q46" s="31" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 09:00-19:15 Submit Date: 2024-02-26, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+          <t>US Absent Unplanned 09:00-19:15</t>
         </is>
       </c>
       <c r="R46" s="32" t="n"/>
@@ -4794,24 +4746,16 @@
       <c r="G47" s="170" t="n"/>
       <c r="H47" s="405" t="n"/>
       <c r="I47" s="404" t="n"/>
-      <c r="J47" s="171" t="inlineStr">
-        <is>
-          <t>Sick</t>
-        </is>
-      </c>
+      <c r="J47" s="171" t="n"/>
       <c r="K47" s="405" t="n"/>
       <c r="L47" s="405" t="n"/>
       <c r="M47" s="404" t="n"/>
-      <c r="N47" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N47" s="170" t="n"/>
       <c r="O47" s="405" t="n"/>
       <c r="P47" s="404" t="n"/>
       <c r="Q47" s="31" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 09:00-19:15 Submit Date: 2024-02-26, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+          <t>US Absent Unplanned 09:00-19:15</t>
         </is>
       </c>
       <c r="R47" s="32" t="n"/>
@@ -5102,16 +5046,24 @@
       <c r="G53" s="170" t="n"/>
       <c r="H53" s="405" t="n"/>
       <c r="I53" s="404" t="n"/>
-      <c r="J53" s="171" t="n"/>
+      <c r="J53" s="171" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
       <c r="K53" s="405" t="n"/>
       <c r="L53" s="405" t="n"/>
       <c r="M53" s="404" t="n"/>
-      <c r="N53" s="170" t="n"/>
+      <c r="N53" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O53" s="405" t="n"/>
       <c r="P53" s="404" t="n"/>
       <c r="Q53" s="31" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 09:00-19:15</t>
+          <t>US Absent Unplanned 09:00-19:15 Submit Date: 2024-03-22, Approver: , Hours Submitted: 10.0</t>
         </is>
       </c>
       <c r="R53" s="32" t="n"/>
@@ -5131,11 +5083,23 @@
       <c r="AF53" s="33" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="24" t="n"/>
+      <c r="A54" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
       <c r="B54" s="171" t="n"/>
-      <c r="C54" s="171" t="n"/>
+      <c r="C54" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D54" s="25" t="n"/>
-      <c r="E54" s="26" t="n"/>
+      <c r="E54" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F54" s="27" t="n"/>
       <c r="G54" s="170" t="n"/>
       <c r="H54" s="405" t="n"/>
@@ -5147,7 +5111,11 @@
       <c r="N54" s="170" t="n"/>
       <c r="O54" s="405" t="n"/>
       <c r="P54" s="404" t="n"/>
-      <c r="Q54" s="31" t="n"/>
+      <c r="Q54" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 09:00-19:15</t>
+        </is>
+      </c>
       <c r="R54" s="32" t="n"/>
       <c r="S54" s="32" t="n"/>
       <c r="T54" s="32" t="n"/>
@@ -5165,11 +5133,23 @@
       <c r="AF54" s="33" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="24" t="n"/>
+      <c r="A55" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
       <c r="B55" s="171" t="n"/>
-      <c r="C55" s="171" t="n"/>
+      <c r="C55" s="171" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
       <c r="D55" s="25" t="n"/>
-      <c r="E55" s="26" t="n"/>
+      <c r="E55" s="26" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
       <c r="F55" s="27" t="n"/>
       <c r="G55" s="170" t="n"/>
       <c r="H55" s="405" t="n"/>
@@ -5181,7 +5161,11 @@
       <c r="N55" s="170" t="n"/>
       <c r="O55" s="405" t="n"/>
       <c r="P55" s="404" t="n"/>
-      <c r="Q55" s="31" t="n"/>
+      <c r="Q55" s="31" t="inlineStr">
+        <is>
+          <t>US Tardy 09:00-14:30</t>
+        </is>
+      </c>
       <c r="R55" s="32" t="n"/>
       <c r="S55" s="32" t="n"/>
       <c r="T55" s="32" t="n"/>
@@ -5199,23 +5183,47 @@
       <c r="AF55" s="33" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="n"/>
+      <c r="A56" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
       <c r="B56" s="171" t="n"/>
-      <c r="C56" s="171" t="n"/>
+      <c r="C56" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D56" s="25" t="n"/>
-      <c r="E56" s="26" t="n"/>
+      <c r="E56" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F56" s="27" t="n"/>
       <c r="G56" s="170" t="n"/>
       <c r="H56" s="405" t="n"/>
       <c r="I56" s="404" t="n"/>
-      <c r="J56" s="171" t="n"/>
+      <c r="J56" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K56" s="405" t="n"/>
       <c r="L56" s="405" t="n"/>
       <c r="M56" s="404" t="n"/>
-      <c r="N56" s="170" t="n"/>
+      <c r="N56" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O56" s="405" t="n"/>
       <c r="P56" s="404" t="n"/>
-      <c r="Q56" s="31" t="n"/>
+      <c r="Q56" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 09:00-19:15 Submit Date: 2024-04-07, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+        </is>
+      </c>
       <c r="R56" s="32" t="n"/>
       <c r="S56" s="32" t="n"/>
       <c r="T56" s="32" t="n"/>
@@ -5233,11 +5241,23 @@
       <c r="AF56" s="33" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="24" t="n"/>
+      <c r="A57" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
       <c r="B57" s="171" t="n"/>
-      <c r="C57" s="171" t="n"/>
+      <c r="C57" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D57" s="25" t="n"/>
-      <c r="E57" s="26" t="n"/>
+      <c r="E57" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F57" s="27" t="n"/>
       <c r="G57" s="170" t="n"/>
       <c r="H57" s="405" t="n"/>
@@ -5249,7 +5269,11 @@
       <c r="N57" s="170" t="n"/>
       <c r="O57" s="405" t="n"/>
       <c r="P57" s="404" t="n"/>
-      <c r="Q57" s="31" t="n"/>
+      <c r="Q57" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 09:00-19:15</t>
+        </is>
+      </c>
       <c r="R57" s="32" t="n"/>
       <c r="S57" s="32" t="n"/>
       <c r="T57" s="32" t="n"/>
@@ -5267,11 +5291,23 @@
       <c r="AF57" s="33" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="24" t="n"/>
+      <c r="A58" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
       <c r="B58" s="171" t="n"/>
-      <c r="C58" s="171" t="n"/>
+      <c r="C58" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D58" s="25" t="n"/>
-      <c r="E58" s="26" t="n"/>
+      <c r="E58" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F58" s="27" t="n"/>
       <c r="G58" s="170" t="n"/>
       <c r="H58" s="405" t="n"/>
@@ -5283,7 +5319,11 @@
       <c r="N58" s="170" t="n"/>
       <c r="O58" s="405" t="n"/>
       <c r="P58" s="404" t="n"/>
-      <c r="Q58" s="31" t="n"/>
+      <c r="Q58" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 09:00-19:15</t>
+        </is>
+      </c>
       <c r="R58" s="32" t="n"/>
       <c r="S58" s="32" t="n"/>
       <c r="T58" s="32" t="n"/>
@@ -5301,11 +5341,23 @@
       <c r="AF58" s="33" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="24" t="n"/>
+      <c r="A59" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
       <c r="B59" s="171" t="n"/>
-      <c r="C59" s="171" t="n"/>
+      <c r="C59" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D59" s="25" t="n"/>
-      <c r="E59" s="26" t="n"/>
+      <c r="E59" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F59" s="27" t="n"/>
       <c r="G59" s="170" t="n"/>
       <c r="H59" s="405" t="n"/>
@@ -5317,7 +5369,11 @@
       <c r="N59" s="170" t="n"/>
       <c r="O59" s="405" t="n"/>
       <c r="P59" s="404" t="n"/>
-      <c r="Q59" s="31" t="n"/>
+      <c r="Q59" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 09:00-19:15</t>
+        </is>
+      </c>
       <c r="R59" s="32" t="n"/>
       <c r="S59" s="32" t="n"/>
       <c r="T59" s="32" t="n"/>
@@ -5335,11 +5391,23 @@
       <c r="AF59" s="33" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="24" t="n"/>
+      <c r="A60" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
       <c r="B60" s="171" t="n"/>
-      <c r="C60" s="171" t="n"/>
+      <c r="C60" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D60" s="25" t="n"/>
-      <c r="E60" s="26" t="n"/>
+      <c r="E60" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F60" s="27" t="n"/>
       <c r="G60" s="170" t="n"/>
       <c r="H60" s="405" t="n"/>
@@ -5351,7 +5419,11 @@
       <c r="N60" s="170" t="n"/>
       <c r="O60" s="405" t="n"/>
       <c r="P60" s="404" t="n"/>
-      <c r="Q60" s="31" t="n"/>
+      <c r="Q60" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 09:00-19:15</t>
+        </is>
+      </c>
       <c r="R60" s="32" t="n"/>
       <c r="S60" s="32" t="n"/>
       <c r="T60" s="32" t="n"/>
@@ -5369,11 +5441,23 @@
       <c r="AF60" s="33" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="24" t="n"/>
+      <c r="A61" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
       <c r="B61" s="171" t="n"/>
-      <c r="C61" s="171" t="n"/>
+      <c r="C61" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D61" s="25" t="n"/>
-      <c r="E61" s="26" t="n"/>
+      <c r="E61" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F61" s="27" t="n"/>
       <c r="G61" s="170" t="n"/>
       <c r="H61" s="405" t="n"/>
@@ -5385,7 +5469,11 @@
       <c r="N61" s="170" t="n"/>
       <c r="O61" s="405" t="n"/>
       <c r="P61" s="404" t="n"/>
-      <c r="Q61" s="31" t="n"/>
+      <c r="Q61" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 09:00-19:15</t>
+        </is>
+      </c>
       <c r="R61" s="32" t="n"/>
       <c r="S61" s="32" t="n"/>
       <c r="T61" s="32" t="n"/>
@@ -5403,11 +5491,23 @@
       <c r="AF61" s="33" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="24" t="n"/>
+      <c r="A62" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
       <c r="B62" s="171" t="n"/>
-      <c r="C62" s="171" t="n"/>
+      <c r="C62" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D62" s="25" t="n"/>
-      <c r="E62" s="26" t="n"/>
+      <c r="E62" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F62" s="27" t="n"/>
       <c r="G62" s="170" t="n"/>
       <c r="H62" s="405" t="n"/>
@@ -5419,7 +5519,11 @@
       <c r="N62" s="170" t="n"/>
       <c r="O62" s="405" t="n"/>
       <c r="P62" s="404" t="n"/>
-      <c r="Q62" s="31" t="n"/>
+      <c r="Q62" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 09:00-19:15</t>
+        </is>
+      </c>
       <c r="R62" s="32" t="n"/>
       <c r="S62" s="32" t="n"/>
       <c r="T62" s="32" t="n"/>
@@ -5437,11 +5541,23 @@
       <c r="AF62" s="33" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="24" t="n"/>
+      <c r="A63" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
       <c r="B63" s="171" t="n"/>
-      <c r="C63" s="171" t="n"/>
+      <c r="C63" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D63" s="25" t="n"/>
-      <c r="E63" s="26" t="n"/>
+      <c r="E63" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F63" s="27" t="n"/>
       <c r="G63" s="170" t="n"/>
       <c r="H63" s="405" t="n"/>
@@ -5453,7 +5569,11 @@
       <c r="N63" s="170" t="n"/>
       <c r="O63" s="405" t="n"/>
       <c r="P63" s="404" t="n"/>
-      <c r="Q63" s="31" t="n"/>
+      <c r="Q63" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 09:00-19:15</t>
+        </is>
+      </c>
       <c r="R63" s="32" t="n"/>
       <c r="S63" s="32" t="n"/>
       <c r="T63" s="32" t="n"/>
@@ -5471,11 +5591,23 @@
       <c r="AF63" s="33" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="24" t="n"/>
+      <c r="A64" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
       <c r="B64" s="171" t="n"/>
-      <c r="C64" s="171" t="n"/>
+      <c r="C64" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D64" s="25" t="n"/>
-      <c r="E64" s="26" t="n"/>
+      <c r="E64" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F64" s="27" t="n"/>
       <c r="G64" s="170" t="n"/>
       <c r="H64" s="405" t="n"/>
@@ -5487,7 +5619,11 @@
       <c r="N64" s="170" t="n"/>
       <c r="O64" s="405" t="n"/>
       <c r="P64" s="404" t="n"/>
-      <c r="Q64" s="31" t="n"/>
+      <c r="Q64" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 09:00-19:15</t>
+        </is>
+      </c>
       <c r="R64" s="32" t="n"/>
       <c r="S64" s="32" t="n"/>
       <c r="T64" s="32" t="n"/>
@@ -5505,11 +5641,23 @@
       <c r="AF64" s="33" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="24" t="n"/>
+      <c r="A65" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
       <c r="B65" s="171" t="n"/>
-      <c r="C65" s="171" t="n"/>
+      <c r="C65" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D65" s="25" t="n"/>
-      <c r="E65" s="26" t="n"/>
+      <c r="E65" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F65" s="27" t="n"/>
       <c r="G65" s="170" t="n"/>
       <c r="H65" s="405" t="n"/>
@@ -5521,7 +5669,11 @@
       <c r="N65" s="170" t="n"/>
       <c r="O65" s="405" t="n"/>
       <c r="P65" s="404" t="n"/>
-      <c r="Q65" s="31" t="n"/>
+      <c r="Q65" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 09:00-19:15</t>
+        </is>
+      </c>
       <c r="R65" s="32" t="n"/>
       <c r="S65" s="32" t="n"/>
       <c r="T65" s="32" t="n"/>
@@ -13088,24 +13240,16 @@
       <c r="G126" s="170" t="n"/>
       <c r="H126" s="405" t="n"/>
       <c r="I126" s="404" t="n"/>
-      <c r="J126" s="171" t="inlineStr">
-        <is>
-          <t>Sick</t>
-        </is>
-      </c>
+      <c r="J126" s="171" t="n"/>
       <c r="K126" s="405" t="n"/>
       <c r="L126" s="405" t="n"/>
       <c r="M126" s="404" t="n"/>
-      <c r="N126" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N126" s="170" t="n"/>
       <c r="O126" s="405" t="n"/>
       <c r="P126" s="404" t="n"/>
       <c r="Q126" s="209" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 13:30-22:00 Submit Date: 2024-02-24, Approver: Oluwarotimi Malomo, Hours Submitted: 8.0</t>
+          <t>US Absent Unplanned 13:30-22:00</t>
         </is>
       </c>
       <c r="R126" s="405" t="n"/>
@@ -13146,24 +13290,16 @@
       <c r="G127" s="170" t="n"/>
       <c r="H127" s="405" t="n"/>
       <c r="I127" s="404" t="n"/>
-      <c r="J127" s="171" t="inlineStr">
-        <is>
-          <t>Sick</t>
-        </is>
-      </c>
+      <c r="J127" s="171" t="n"/>
       <c r="K127" s="405" t="n"/>
       <c r="L127" s="405" t="n"/>
       <c r="M127" s="404" t="n"/>
-      <c r="N127" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N127" s="170" t="n"/>
       <c r="O127" s="405" t="n"/>
       <c r="P127" s="404" t="n"/>
       <c r="Q127" s="209" t="inlineStr">
         <is>
-          <t>US Partial 15:14-22:00 Submit Date: 2024-03-08, Approver: Oluwarotimi Malomo, Hours Submitted: 5.45</t>
+          <t>US Partial 15:14-22:00</t>
         </is>
       </c>
       <c r="R127" s="405" t="n"/>
@@ -13183,23 +13319,47 @@
       <c r="AF127" s="404" t="n"/>
     </row>
     <row r="128">
-      <c r="A128" s="24" t="n"/>
+      <c r="A128" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
       <c r="B128" s="171" t="n"/>
-      <c r="C128" s="171" t="n"/>
-      <c r="D128" s="171" t="n"/>
+      <c r="C128" s="171" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D128" s="171" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="E128" s="405" t="n"/>
       <c r="F128" s="404" t="n"/>
       <c r="G128" s="170" t="n"/>
       <c r="H128" s="405" t="n"/>
       <c r="I128" s="404" t="n"/>
-      <c r="J128" s="171" t="n"/>
+      <c r="J128" s="171" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
       <c r="K128" s="405" t="n"/>
       <c r="L128" s="405" t="n"/>
       <c r="M128" s="404" t="n"/>
-      <c r="N128" s="170" t="n"/>
+      <c r="N128" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O128" s="405" t="n"/>
       <c r="P128" s="404" t="n"/>
-      <c r="Q128" s="209" t="n"/>
+      <c r="Q128" s="209" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 14:00-22:00 Submit Date: 2024-03-19, Approver: Oluwarotimi Malomo, Hours Submitted: 16.0</t>
+        </is>
+      </c>
       <c r="R128" s="405" t="n"/>
       <c r="S128" s="405" t="n"/>
       <c r="T128" s="405" t="n"/>
@@ -13217,10 +13377,22 @@
       <c r="AF128" s="404" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" s="24" t="n"/>
+      <c r="A129" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
       <c r="B129" s="171" t="n"/>
-      <c r="C129" s="171" t="n"/>
-      <c r="D129" s="171" t="n"/>
+      <c r="C129" s="171" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="D129" s="171" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="E129" s="405" t="n"/>
       <c r="F129" s="404" t="n"/>
       <c r="G129" s="170" t="n"/>
@@ -13233,7 +13405,11 @@
       <c r="N129" s="170" t="n"/>
       <c r="O129" s="405" t="n"/>
       <c r="P129" s="404" t="n"/>
-      <c r="Q129" s="209" t="n"/>
+      <c r="Q129" s="209" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 13:30-22:00</t>
+        </is>
+      </c>
       <c r="R129" s="405" t="n"/>
       <c r="S129" s="405" t="n"/>
       <c r="T129" s="405" t="n"/>
@@ -13251,23 +13427,47 @@
       <c r="AF129" s="404" t="n"/>
     </row>
     <row r="130">
-      <c r="A130" s="24" t="n"/>
+      <c r="A130" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B130" s="171" t="n"/>
-      <c r="C130" s="171" t="n"/>
-      <c r="D130" s="171" t="n"/>
+      <c r="C130" s="171" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="D130" s="171" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="E130" s="405" t="n"/>
       <c r="F130" s="404" t="n"/>
       <c r="G130" s="170" t="n"/>
       <c r="H130" s="405" t="n"/>
       <c r="I130" s="404" t="n"/>
-      <c r="J130" s="171" t="n"/>
+      <c r="J130" s="171" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
       <c r="K130" s="405" t="n"/>
       <c r="L130" s="405" t="n"/>
       <c r="M130" s="404" t="n"/>
-      <c r="N130" s="170" t="n"/>
+      <c r="N130" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O130" s="405" t="n"/>
       <c r="P130" s="404" t="n"/>
-      <c r="Q130" s="209" t="n"/>
+      <c r="Q130" s="209" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 13:30-22:00 Submit Date: 2024-03-19, Approver: Oluwarotimi Malomo, Hours Submitted: 8.0</t>
+        </is>
+      </c>
       <c r="R130" s="405" t="n"/>
       <c r="S130" s="405" t="n"/>
       <c r="T130" s="405" t="n"/>
@@ -13285,23 +13485,47 @@
       <c r="AF130" s="404" t="n"/>
     </row>
     <row r="131">
-      <c r="A131" s="24" t="n"/>
+      <c r="A131" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
       <c r="B131" s="171" t="n"/>
-      <c r="C131" s="171" t="n"/>
-      <c r="D131" s="171" t="n"/>
+      <c r="C131" s="171" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="D131" s="171" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="E131" s="405" t="n"/>
       <c r="F131" s="404" t="n"/>
       <c r="G131" s="170" t="n"/>
       <c r="H131" s="405" t="n"/>
       <c r="I131" s="404" t="n"/>
-      <c r="J131" s="171" t="n"/>
+      <c r="J131" s="171" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
       <c r="K131" s="405" t="n"/>
       <c r="L131" s="405" t="n"/>
       <c r="M131" s="404" t="n"/>
-      <c r="N131" s="170" t="n"/>
+      <c r="N131" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O131" s="405" t="n"/>
       <c r="P131" s="404" t="n"/>
-      <c r="Q131" s="209" t="n"/>
+      <c r="Q131" s="209" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 13:30-22:00 Submit Date: 2024-03-25, Approver: , Hours Submitted: 8.0</t>
+        </is>
+      </c>
       <c r="R131" s="405" t="n"/>
       <c r="S131" s="405" t="n"/>
       <c r="T131" s="405" t="n"/>
@@ -13319,10 +13543,22 @@
       <c r="AF131" s="404" t="n"/>
     </row>
     <row r="132">
-      <c r="A132" s="24" t="n"/>
+      <c r="A132" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
       <c r="B132" s="171" t="n"/>
-      <c r="C132" s="171" t="n"/>
-      <c r="D132" s="171" t="n"/>
+      <c r="C132" s="171" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="D132" s="171" t="inlineStr">
+        <is>
+          <t>US Partial</t>
+        </is>
+      </c>
       <c r="E132" s="405" t="n"/>
       <c r="F132" s="404" t="n"/>
       <c r="G132" s="170" t="n"/>
@@ -13335,7 +13571,11 @@
       <c r="N132" s="170" t="n"/>
       <c r="O132" s="405" t="n"/>
       <c r="P132" s="404" t="n"/>
-      <c r="Q132" s="209" t="n"/>
+      <c r="Q132" s="209" t="inlineStr">
+        <is>
+          <t>US Partial 20:53-22:00</t>
+        </is>
+      </c>
       <c r="R132" s="405" t="n"/>
       <c r="S132" s="405" t="n"/>
       <c r="T132" s="405" t="n"/>
@@ -13353,10 +13593,22 @@
       <c r="AF132" s="404" t="n"/>
     </row>
     <row r="133">
-      <c r="A133" s="24" t="n"/>
+      <c r="A133" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
       <c r="B133" s="171" t="n"/>
-      <c r="C133" s="171" t="n"/>
-      <c r="D133" s="171" t="n"/>
+      <c r="C133" s="171" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="D133" s="171" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="E133" s="405" t="n"/>
       <c r="F133" s="404" t="n"/>
       <c r="G133" s="170" t="n"/>
@@ -13369,7 +13621,11 @@
       <c r="N133" s="170" t="n"/>
       <c r="O133" s="405" t="n"/>
       <c r="P133" s="404" t="n"/>
-      <c r="Q133" s="209" t="n"/>
+      <c r="Q133" s="209" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 13:30-22:00</t>
+        </is>
+      </c>
       <c r="R133" s="405" t="n"/>
       <c r="S133" s="405" t="n"/>
       <c r="T133" s="405" t="n"/>
@@ -13387,23 +13643,47 @@
       <c r="AF133" s="404" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" s="24" t="n"/>
+      <c r="A134" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
       <c r="B134" s="171" t="n"/>
-      <c r="C134" s="171" t="n"/>
-      <c r="D134" s="171" t="n"/>
+      <c r="C134" s="171" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="D134" s="171" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="E134" s="405" t="n"/>
       <c r="F134" s="404" t="n"/>
       <c r="G134" s="170" t="n"/>
       <c r="H134" s="405" t="n"/>
       <c r="I134" s="404" t="n"/>
-      <c r="J134" s="171" t="n"/>
+      <c r="J134" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K134" s="405" t="n"/>
       <c r="L134" s="405" t="n"/>
       <c r="M134" s="404" t="n"/>
-      <c r="N134" s="170" t="n"/>
+      <c r="N134" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O134" s="405" t="n"/>
       <c r="P134" s="404" t="n"/>
-      <c r="Q134" s="209" t="n"/>
+      <c r="Q134" s="209" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 13:30-22:00 Submit Date: 2024-04-06, Approver: Oluwarotimi Malomo, Hours Submitted: 8.0</t>
+        </is>
+      </c>
       <c r="R134" s="405" t="n"/>
       <c r="S134" s="405" t="n"/>
       <c r="T134" s="405" t="n"/>
@@ -13421,23 +13701,47 @@
       <c r="AF134" s="404" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" s="24" t="n"/>
+      <c r="A135" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B135" s="171" t="n"/>
-      <c r="C135" s="171" t="n"/>
-      <c r="D135" s="171" t="n"/>
+      <c r="C135" s="171" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="D135" s="171" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="E135" s="405" t="n"/>
       <c r="F135" s="404" t="n"/>
       <c r="G135" s="170" t="n"/>
       <c r="H135" s="405" t="n"/>
       <c r="I135" s="404" t="n"/>
-      <c r="J135" s="171" t="n"/>
+      <c r="J135" s="171" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
       <c r="K135" s="405" t="n"/>
       <c r="L135" s="405" t="n"/>
       <c r="M135" s="404" t="n"/>
-      <c r="N135" s="170" t="n"/>
+      <c r="N135" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O135" s="405" t="n"/>
       <c r="P135" s="404" t="n"/>
-      <c r="Q135" s="209" t="n"/>
+      <c r="Q135" s="209" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 13:30-22:00 Submit Date: 2024-04-05, Approver: Oluwarotimi Malomo, Hours Submitted: 8.0</t>
+        </is>
+      </c>
       <c r="R135" s="405" t="n"/>
       <c r="S135" s="405" t="n"/>
       <c r="T135" s="405" t="n"/>
@@ -13455,10 +13759,22 @@
       <c r="AF135" s="404" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" s="24" t="n"/>
+      <c r="A136" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
       <c r="B136" s="171" t="n"/>
-      <c r="C136" s="171" t="n"/>
-      <c r="D136" s="171" t="n"/>
+      <c r="C136" s="171" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="D136" s="171" t="inlineStr">
+        <is>
+          <t>US Partial</t>
+        </is>
+      </c>
       <c r="E136" s="405" t="n"/>
       <c r="F136" s="404" t="n"/>
       <c r="G136" s="170" t="n"/>
@@ -13471,7 +13787,11 @@
       <c r="N136" s="170" t="n"/>
       <c r="O136" s="405" t="n"/>
       <c r="P136" s="404" t="n"/>
-      <c r="Q136" s="209" t="n"/>
+      <c r="Q136" s="209" t="inlineStr">
+        <is>
+          <t>US Partial 16:48-22:00</t>
+        </is>
+      </c>
       <c r="R136" s="405" t="n"/>
       <c r="S136" s="405" t="n"/>
       <c r="T136" s="405" t="n"/>
@@ -13489,23 +13809,47 @@
       <c r="AF136" s="404" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" s="24" t="n"/>
+      <c r="A137" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
       <c r="B137" s="171" t="n"/>
-      <c r="C137" s="171" t="n"/>
-      <c r="D137" s="171" t="n"/>
+      <c r="C137" s="171" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="D137" s="171" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="E137" s="405" t="n"/>
       <c r="F137" s="404" t="n"/>
       <c r="G137" s="170" t="n"/>
       <c r="H137" s="405" t="n"/>
       <c r="I137" s="404" t="n"/>
-      <c r="J137" s="171" t="n"/>
+      <c r="J137" s="171" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
       <c r="K137" s="405" t="n"/>
       <c r="L137" s="405" t="n"/>
       <c r="M137" s="404" t="n"/>
-      <c r="N137" s="170" t="n"/>
+      <c r="N137" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O137" s="405" t="n"/>
       <c r="P137" s="404" t="n"/>
-      <c r="Q137" s="209" t="n"/>
+      <c r="Q137" s="209" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 13:30-22:00 Submit Date: 2024-04-05, Approver: Oluwarotimi Malomo, Hours Submitted: 8.0</t>
+        </is>
+      </c>
       <c r="R137" s="405" t="n"/>
       <c r="S137" s="405" t="n"/>
       <c r="T137" s="405" t="n"/>
@@ -13523,23 +13867,47 @@
       <c r="AF137" s="404" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" s="24" t="n"/>
+      <c r="A138" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
       <c r="B138" s="171" t="n"/>
-      <c r="C138" s="171" t="n"/>
-      <c r="D138" s="171" t="n"/>
+      <c r="C138" s="171" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="D138" s="171" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="E138" s="405" t="n"/>
       <c r="F138" s="404" t="n"/>
       <c r="G138" s="170" t="n"/>
       <c r="H138" s="405" t="n"/>
       <c r="I138" s="404" t="n"/>
-      <c r="J138" s="171" t="n"/>
+      <c r="J138" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K138" s="405" t="n"/>
       <c r="L138" s="405" t="n"/>
       <c r="M138" s="404" t="n"/>
-      <c r="N138" s="170" t="n"/>
+      <c r="N138" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O138" s="405" t="n"/>
       <c r="P138" s="404" t="n"/>
-      <c r="Q138" s="209" t="n"/>
+      <c r="Q138" s="209" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 13:30-22:00 Submit Date: 2024-04-17, Approver: Oluwarotimi Malomo, Hours Submitted: 8.0</t>
+        </is>
+      </c>
       <c r="R138" s="405" t="n"/>
       <c r="S138" s="405" t="n"/>
       <c r="T138" s="405" t="n"/>
@@ -13557,23 +13925,47 @@
       <c r="AF138" s="404" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" s="24" t="n"/>
+      <c r="A139" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
       <c r="B139" s="171" t="n"/>
-      <c r="C139" s="171" t="n"/>
-      <c r="D139" s="171" t="n"/>
+      <c r="C139" s="171" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="D139" s="171" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="E139" s="405" t="n"/>
       <c r="F139" s="404" t="n"/>
       <c r="G139" s="170" t="n"/>
       <c r="H139" s="405" t="n"/>
       <c r="I139" s="404" t="n"/>
-      <c r="J139" s="171" t="n"/>
+      <c r="J139" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K139" s="405" t="n"/>
       <c r="L139" s="405" t="n"/>
       <c r="M139" s="404" t="n"/>
-      <c r="N139" s="170" t="n"/>
+      <c r="N139" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O139" s="405" t="n"/>
       <c r="P139" s="404" t="n"/>
-      <c r="Q139" s="209" t="n"/>
+      <c r="Q139" s="209" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 13:30-22:00 Submit Date: 2024-04-17, Approver: Oluwarotimi Malomo, Hours Submitted: 8.0</t>
+        </is>
+      </c>
       <c r="R139" s="405" t="n"/>
       <c r="S139" s="405" t="n"/>
       <c r="T139" s="405" t="n"/>
@@ -13591,10 +13983,22 @@
       <c r="AF139" s="404" t="n"/>
     </row>
     <row r="140">
-      <c r="A140" s="24" t="n"/>
+      <c r="A140" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
       <c r="B140" s="171" t="n"/>
-      <c r="C140" s="171" t="n"/>
-      <c r="D140" s="171" t="n"/>
+      <c r="C140" s="171" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="D140" s="171" t="inlineStr">
+        <is>
+          <t>US Partial</t>
+        </is>
+      </c>
       <c r="E140" s="405" t="n"/>
       <c r="F140" s="404" t="n"/>
       <c r="G140" s="170" t="n"/>
@@ -13607,7 +14011,11 @@
       <c r="N140" s="170" t="n"/>
       <c r="O140" s="405" t="n"/>
       <c r="P140" s="404" t="n"/>
-      <c r="Q140" s="209" t="n"/>
+      <c r="Q140" s="209" t="inlineStr">
+        <is>
+          <t>US Partial 18:19-22:00</t>
+        </is>
+      </c>
       <c r="R140" s="405" t="n"/>
       <c r="S140" s="405" t="n"/>
       <c r="T140" s="405" t="n"/>
@@ -13625,10 +14033,22 @@
       <c r="AF140" s="404" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="24" t="n"/>
+      <c r="A141" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
       <c r="B141" s="171" t="n"/>
-      <c r="C141" s="171" t="n"/>
-      <c r="D141" s="171" t="n"/>
+      <c r="C141" s="171" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="D141" s="171" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="E141" s="405" t="n"/>
       <c r="F141" s="404" t="n"/>
       <c r="G141" s="170" t="n"/>
@@ -13641,7 +14061,11 @@
       <c r="N141" s="170" t="n"/>
       <c r="O141" s="405" t="n"/>
       <c r="P141" s="404" t="n"/>
-      <c r="Q141" s="209" t="n"/>
+      <c r="Q141" s="209" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 13:30-22:00</t>
+        </is>
+      </c>
       <c r="R141" s="405" t="n"/>
       <c r="S141" s="405" t="n"/>
       <c r="T141" s="405" t="n"/>
@@ -13659,10 +14083,22 @@
       <c r="AF141" s="404" t="n"/>
     </row>
     <row r="142">
-      <c r="A142" s="24" t="n"/>
+      <c r="A142" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
       <c r="B142" s="171" t="n"/>
-      <c r="C142" s="171" t="n"/>
-      <c r="D142" s="171" t="n"/>
+      <c r="C142" s="171" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="D142" s="171" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="E142" s="405" t="n"/>
       <c r="F142" s="404" t="n"/>
       <c r="G142" s="170" t="n"/>
@@ -13675,7 +14111,11 @@
       <c r="N142" s="170" t="n"/>
       <c r="O142" s="405" t="n"/>
       <c r="P142" s="404" t="n"/>
-      <c r="Q142" s="209" t="n"/>
+      <c r="Q142" s="209" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 13:30-22:00</t>
+        </is>
+      </c>
       <c r="R142" s="405" t="n"/>
       <c r="S142" s="405" t="n"/>
       <c r="T142" s="405" t="n"/>
@@ -13693,10 +14133,22 @@
       <c r="AF142" s="404" t="n"/>
     </row>
     <row r="143">
-      <c r="A143" s="24" t="n"/>
+      <c r="A143" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
       <c r="B143" s="171" t="n"/>
-      <c r="C143" s="171" t="n"/>
-      <c r="D143" s="171" t="n"/>
+      <c r="C143" s="171" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="D143" s="171" t="inlineStr">
+        <is>
+          <t>US Partial</t>
+        </is>
+      </c>
       <c r="E143" s="405" t="n"/>
       <c r="F143" s="404" t="n"/>
       <c r="G143" s="170" t="n"/>
@@ -13709,7 +14161,11 @@
       <c r="N143" s="170" t="n"/>
       <c r="O143" s="405" t="n"/>
       <c r="P143" s="404" t="n"/>
-      <c r="Q143" s="209" t="n"/>
+      <c r="Q143" s="209" t="inlineStr">
+        <is>
+          <t>US Partial 16:58-22:00</t>
+        </is>
+      </c>
       <c r="R143" s="405" t="n"/>
       <c r="S143" s="405" t="n"/>
       <c r="T143" s="405" t="n"/>
@@ -26741,24 +27197,16 @@
       <c r="G55" s="170" t="n"/>
       <c r="H55" s="405" t="n"/>
       <c r="I55" s="404" t="n"/>
-      <c r="J55" s="171" t="inlineStr">
-        <is>
-          <t>PTO</t>
-        </is>
-      </c>
+      <c r="J55" s="171" t="n"/>
       <c r="K55" s="405" t="n"/>
       <c r="L55" s="405" t="n"/>
       <c r="M55" s="404" t="n"/>
-      <c r="N55" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N55" s="170" t="n"/>
       <c r="O55" s="405" t="n"/>
       <c r="P55" s="404" t="n"/>
       <c r="Q55" s="31" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 11:45-22:00 Submit Date: 2024-02-24, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+          <t>US Absent Unplanned 11:45-22:00</t>
         </is>
       </c>
       <c r="R55" s="32" t="n"/>
@@ -26799,24 +27247,16 @@
       <c r="G56" s="170" t="n"/>
       <c r="H56" s="405" t="n"/>
       <c r="I56" s="404" t="n"/>
-      <c r="J56" s="171" t="inlineStr">
-        <is>
-          <t>Sick</t>
-        </is>
-      </c>
+      <c r="J56" s="171" t="n"/>
       <c r="K56" s="405" t="n"/>
       <c r="L56" s="405" t="n"/>
       <c r="M56" s="404" t="n"/>
-      <c r="N56" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N56" s="170" t="n"/>
       <c r="O56" s="405" t="n"/>
       <c r="P56" s="404" t="n"/>
       <c r="Q56" s="31" t="inlineStr">
         <is>
-          <t>US Tardy 11:45-15:15 Submit Date: 2024-02-19, Approver: Oluwarotimi Malomo, Hours Submitted: 3.5</t>
+          <t>US Tardy 11:45-15:15</t>
         </is>
       </c>
       <c r="R56" s="32" t="n"/>
@@ -26907,24 +27347,16 @@
       <c r="G58" s="170" t="n"/>
       <c r="H58" s="405" t="n"/>
       <c r="I58" s="404" t="n"/>
-      <c r="J58" s="171" t="inlineStr">
-        <is>
-          <t>Holiday Pay</t>
-        </is>
-      </c>
+      <c r="J58" s="171" t="n"/>
       <c r="K58" s="405" t="n"/>
       <c r="L58" s="405" t="n"/>
       <c r="M58" s="404" t="n"/>
-      <c r="N58" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N58" s="170" t="n"/>
       <c r="O58" s="405" t="n"/>
       <c r="P58" s="404" t="n"/>
       <c r="Q58" s="31" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 11:45-22:00 Submit Date: 2024-02-27, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+          <t>US Absent Unplanned 11:45-22:00</t>
         </is>
       </c>
       <c r="R58" s="32" t="n"/>
@@ -26965,24 +27397,16 @@
       <c r="G59" s="170" t="n"/>
       <c r="H59" s="405" t="n"/>
       <c r="I59" s="404" t="n"/>
-      <c r="J59" s="171" t="inlineStr">
-        <is>
-          <t>Sick</t>
-        </is>
-      </c>
+      <c r="J59" s="171" t="n"/>
       <c r="K59" s="405" t="n"/>
       <c r="L59" s="405" t="n"/>
       <c r="M59" s="404" t="n"/>
-      <c r="N59" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N59" s="170" t="n"/>
       <c r="O59" s="405" t="n"/>
       <c r="P59" s="404" t="n"/>
       <c r="Q59" s="31" t="inlineStr">
         <is>
-          <t>US Tardy 11:45-13:30 Submit Date: 2024-03-09, Approver: Oluwarotimi Malomo, Hours Submitted: 2.0</t>
+          <t>US Tardy 11:45-13:30</t>
         </is>
       </c>
       <c r="R59" s="32" t="n"/>
@@ -27073,16 +27497,24 @@
       <c r="G61" s="170" t="n"/>
       <c r="H61" s="405" t="n"/>
       <c r="I61" s="404" t="n"/>
-      <c r="J61" s="171" t="n"/>
+      <c r="J61" s="171" t="inlineStr">
+        <is>
+          <t>Bereav-Extended Family</t>
+        </is>
+      </c>
       <c r="K61" s="405" t="n"/>
       <c r="L61" s="405" t="n"/>
       <c r="M61" s="404" t="n"/>
-      <c r="N61" s="170" t="n"/>
+      <c r="N61" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O61" s="405" t="n"/>
       <c r="P61" s="404" t="n"/>
       <c r="Q61" s="31" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 11:45-22:00</t>
+          <t>US Absent Unplanned 11:45-22:00 Submit Date: 2024-03-16, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
         </is>
       </c>
       <c r="R61" s="32" t="n"/>
@@ -27102,11 +27534,23 @@
       <c r="AF61" s="33" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="24" t="n"/>
+      <c r="A62" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B62" s="171" t="n"/>
-      <c r="C62" s="171" t="n"/>
+      <c r="C62" s="171" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
       <c r="D62" s="25" t="n"/>
-      <c r="E62" s="26" t="n"/>
+      <c r="E62" s="26" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
       <c r="F62" s="27" t="n"/>
       <c r="G62" s="170" t="n"/>
       <c r="H62" s="405" t="n"/>
@@ -27118,7 +27562,11 @@
       <c r="N62" s="170" t="n"/>
       <c r="O62" s="405" t="n"/>
       <c r="P62" s="404" t="n"/>
-      <c r="Q62" s="31" t="n"/>
+      <c r="Q62" s="31" t="inlineStr">
+        <is>
+          <t>US Tardy 11:45-12:05</t>
+        </is>
+      </c>
       <c r="R62" s="32" t="n"/>
       <c r="S62" s="32" t="n"/>
       <c r="T62" s="32" t="n"/>
@@ -27136,11 +27584,23 @@
       <c r="AF62" s="33" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="24" t="n"/>
+      <c r="A63" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
       <c r="B63" s="171" t="n"/>
-      <c r="C63" s="171" t="n"/>
+      <c r="C63" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D63" s="25" t="n"/>
-      <c r="E63" s="26" t="n"/>
+      <c r="E63" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F63" s="27" t="n"/>
       <c r="G63" s="170" t="n"/>
       <c r="H63" s="405" t="n"/>
@@ -27152,7 +27612,11 @@
       <c r="N63" s="170" t="n"/>
       <c r="O63" s="405" t="n"/>
       <c r="P63" s="404" t="n"/>
-      <c r="Q63" s="31" t="n"/>
+      <c r="Q63" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 11:45-22:00</t>
+        </is>
+      </c>
       <c r="R63" s="32" t="n"/>
       <c r="S63" s="32" t="n"/>
       <c r="T63" s="32" t="n"/>
@@ -27170,23 +27634,47 @@
       <c r="AF63" s="33" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="24" t="n"/>
+      <c r="A64" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
       <c r="B64" s="171" t="n"/>
-      <c r="C64" s="171" t="n"/>
+      <c r="C64" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D64" s="25" t="n"/>
-      <c r="E64" s="26" t="n"/>
+      <c r="E64" s="26" t="inlineStr">
+        <is>
+          <t>US NCL</t>
+        </is>
+      </c>
       <c r="F64" s="27" t="n"/>
       <c r="G64" s="170" t="n"/>
       <c r="H64" s="405" t="n"/>
       <c r="I64" s="404" t="n"/>
-      <c r="J64" s="171" t="n"/>
+      <c r="J64" s="171" t="inlineStr">
+        <is>
+          <t>Bereav-Extended Family</t>
+        </is>
+      </c>
       <c r="K64" s="405" t="n"/>
       <c r="L64" s="405" t="n"/>
       <c r="M64" s="404" t="n"/>
-      <c r="N64" s="170" t="n"/>
+      <c r="N64" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O64" s="405" t="n"/>
       <c r="P64" s="404" t="n"/>
-      <c r="Q64" s="31" t="n"/>
+      <c r="Q64" s="31" t="inlineStr">
+        <is>
+          <t>US NCL 11:45-22:00 Submit Date: 2024-03-25, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+        </is>
+      </c>
       <c r="R64" s="32" t="n"/>
       <c r="S64" s="32" t="n"/>
       <c r="T64" s="32" t="n"/>
@@ -27204,23 +27692,47 @@
       <c r="AF64" s="33" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="24" t="n"/>
+      <c r="A65" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
       <c r="B65" s="171" t="n"/>
-      <c r="C65" s="171" t="n"/>
+      <c r="C65" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D65" s="25" t="n"/>
-      <c r="E65" s="26" t="n"/>
+      <c r="E65" s="26" t="inlineStr">
+        <is>
+          <t>US NCL</t>
+        </is>
+      </c>
       <c r="F65" s="27" t="n"/>
       <c r="G65" s="170" t="n"/>
       <c r="H65" s="405" t="n"/>
       <c r="I65" s="404" t="n"/>
-      <c r="J65" s="171" t="n"/>
+      <c r="J65" s="171" t="inlineStr">
+        <is>
+          <t>Bereav-Extended Family</t>
+        </is>
+      </c>
       <c r="K65" s="405" t="n"/>
       <c r="L65" s="405" t="n"/>
       <c r="M65" s="404" t="n"/>
-      <c r="N65" s="170" t="n"/>
+      <c r="N65" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O65" s="405" t="n"/>
       <c r="P65" s="404" t="n"/>
-      <c r="Q65" s="31" t="n"/>
+      <c r="Q65" s="31" t="inlineStr">
+        <is>
+          <t>US NCL 11:45-22:00 Submit Date: 2024-03-25, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+        </is>
+      </c>
       <c r="R65" s="32" t="n"/>
       <c r="S65" s="32" t="n"/>
       <c r="T65" s="32" t="n"/>
@@ -27238,11 +27750,23 @@
       <c r="AF65" s="33" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="24" t="n"/>
+      <c r="A66" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B66" s="171" t="n"/>
-      <c r="C66" s="171" t="n"/>
+      <c r="C66" s="171" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
       <c r="D66" s="25" t="n"/>
-      <c r="E66" s="26" t="n"/>
+      <c r="E66" s="26" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
       <c r="F66" s="27" t="n"/>
       <c r="G66" s="170" t="n"/>
       <c r="H66" s="405" t="n"/>
@@ -27254,7 +27778,11 @@
       <c r="N66" s="170" t="n"/>
       <c r="O66" s="405" t="n"/>
       <c r="P66" s="404" t="n"/>
-      <c r="Q66" s="31" t="n"/>
+      <c r="Q66" s="31" t="inlineStr">
+        <is>
+          <t>US Tardy 11:45-13:55</t>
+        </is>
+      </c>
       <c r="R66" s="32" t="n"/>
       <c r="S66" s="32" t="n"/>
       <c r="T66" s="32" t="n"/>
@@ -27272,23 +27800,47 @@
       <c r="AF66" s="33" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="24" t="n"/>
+      <c r="A67" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
       <c r="B67" s="171" t="n"/>
-      <c r="C67" s="171" t="n"/>
+      <c r="C67" s="171" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
       <c r="D67" s="25" t="n"/>
-      <c r="E67" s="26" t="n"/>
+      <c r="E67" s="26" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
       <c r="F67" s="27" t="n"/>
       <c r="G67" s="170" t="n"/>
       <c r="H67" s="405" t="n"/>
       <c r="I67" s="404" t="n"/>
-      <c r="J67" s="171" t="n"/>
+      <c r="J67" s="171" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
       <c r="K67" s="405" t="n"/>
       <c r="L67" s="405" t="n"/>
       <c r="M67" s="404" t="n"/>
-      <c r="N67" s="170" t="n"/>
+      <c r="N67" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O67" s="405" t="n"/>
       <c r="P67" s="404" t="n"/>
-      <c r="Q67" s="31" t="n"/>
+      <c r="Q67" s="31" t="inlineStr">
+        <is>
+          <t>US Tardy 11:45-12:57 Submit Date: 2024-04-03, Approver: Oluwarotimi Malomo, Hours Submitted: 1.0</t>
+        </is>
+      </c>
       <c r="R67" s="32" t="n"/>
       <c r="S67" s="32" t="n"/>
       <c r="T67" s="32" t="n"/>
@@ -27306,23 +27858,47 @@
       <c r="AF67" s="33" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="24" t="n"/>
+      <c r="A68" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
       <c r="B68" s="171" t="n"/>
-      <c r="C68" s="171" t="n"/>
+      <c r="C68" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D68" s="25" t="n"/>
-      <c r="E68" s="26" t="n"/>
+      <c r="E68" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F68" s="27" t="n"/>
       <c r="G68" s="170" t="n"/>
       <c r="H68" s="405" t="n"/>
       <c r="I68" s="404" t="n"/>
-      <c r="J68" s="171" t="n"/>
+      <c r="J68" s="171" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
       <c r="K68" s="405" t="n"/>
       <c r="L68" s="405" t="n"/>
       <c r="M68" s="404" t="n"/>
-      <c r="N68" s="170" t="n"/>
+      <c r="N68" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O68" s="405" t="n"/>
       <c r="P68" s="404" t="n"/>
-      <c r="Q68" s="31" t="n"/>
+      <c r="Q68" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 11:45-22:00 Submit Date: 2024-04-08, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+        </is>
+      </c>
       <c r="R68" s="32" t="n"/>
       <c r="S68" s="32" t="n"/>
       <c r="T68" s="32" t="n"/>
@@ -27340,11 +27916,23 @@
       <c r="AF68" s="33" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="24" t="n"/>
+      <c r="A69" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
       <c r="B69" s="171" t="n"/>
-      <c r="C69" s="171" t="n"/>
+      <c r="C69" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D69" s="25" t="n"/>
-      <c r="E69" s="26" t="n"/>
+      <c r="E69" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F69" s="27" t="n"/>
       <c r="G69" s="170" t="n"/>
       <c r="H69" s="405" t="n"/>
@@ -27356,7 +27944,11 @@
       <c r="N69" s="170" t="n"/>
       <c r="O69" s="405" t="n"/>
       <c r="P69" s="404" t="n"/>
-      <c r="Q69" s="31" t="n"/>
+      <c r="Q69" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 11:45-22:00</t>
+        </is>
+      </c>
       <c r="R69" s="32" t="n"/>
       <c r="S69" s="32" t="n"/>
       <c r="T69" s="32" t="n"/>
@@ -27374,11 +27966,23 @@
       <c r="AF69" s="33" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="24" t="n"/>
+      <c r="A70" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
       <c r="B70" s="171" t="n"/>
-      <c r="C70" s="171" t="n"/>
+      <c r="C70" s="171" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
       <c r="D70" s="25" t="n"/>
-      <c r="E70" s="26" t="n"/>
+      <c r="E70" s="26" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
       <c r="F70" s="27" t="n"/>
       <c r="G70" s="170" t="n"/>
       <c r="H70" s="405" t="n"/>
@@ -27390,7 +27994,11 @@
       <c r="N70" s="170" t="n"/>
       <c r="O70" s="405" t="n"/>
       <c r="P70" s="404" t="n"/>
-      <c r="Q70" s="31" t="n"/>
+      <c r="Q70" s="31" t="inlineStr">
+        <is>
+          <t>US Tardy 11:45-15:16</t>
+        </is>
+      </c>
       <c r="R70" s="32" t="n"/>
       <c r="S70" s="32" t="n"/>
       <c r="T70" s="32" t="n"/>
@@ -27408,23 +28016,47 @@
       <c r="AF70" s="33" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="24" t="n"/>
+      <c r="A71" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
       <c r="B71" s="171" t="n"/>
-      <c r="C71" s="171" t="n"/>
+      <c r="C71" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D71" s="25" t="n"/>
-      <c r="E71" s="26" t="n"/>
+      <c r="E71" s="26" t="inlineStr">
+        <is>
+          <t>US NCL</t>
+        </is>
+      </c>
       <c r="F71" s="27" t="n"/>
       <c r="G71" s="170" t="n"/>
       <c r="H71" s="405" t="n"/>
       <c r="I71" s="404" t="n"/>
-      <c r="J71" s="171" t="n"/>
+      <c r="J71" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K71" s="405" t="n"/>
       <c r="L71" s="405" t="n"/>
       <c r="M71" s="404" t="n"/>
-      <c r="N71" s="170" t="n"/>
+      <c r="N71" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O71" s="405" t="n"/>
       <c r="P71" s="404" t="n"/>
-      <c r="Q71" s="31" t="n"/>
+      <c r="Q71" s="31" t="inlineStr">
+        <is>
+          <t>US NCL 11:45-22:00 Submit Date: 2024-04-16, Approver: Oluwarotimi Malomo, Hours Submitted: 5.0</t>
+        </is>
+      </c>
       <c r="R71" s="32" t="n"/>
       <c r="S71" s="32" t="n"/>
       <c r="T71" s="32" t="n"/>
@@ -27442,11 +28074,23 @@
       <c r="AF71" s="33" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="24" t="n"/>
+      <c r="A72" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
       <c r="B72" s="171" t="n"/>
-      <c r="C72" s="171" t="n"/>
+      <c r="C72" s="171" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
       <c r="D72" s="25" t="n"/>
-      <c r="E72" s="26" t="n"/>
+      <c r="E72" s="26" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
       <c r="F72" s="27" t="n"/>
       <c r="G72" s="170" t="n"/>
       <c r="H72" s="405" t="n"/>
@@ -27458,7 +28102,11 @@
       <c r="N72" s="170" t="n"/>
       <c r="O72" s="405" t="n"/>
       <c r="P72" s="404" t="n"/>
-      <c r="Q72" s="31" t="n"/>
+      <c r="Q72" s="31" t="inlineStr">
+        <is>
+          <t>US Tardy 11:45-11:56</t>
+        </is>
+      </c>
       <c r="R72" s="32" t="n"/>
       <c r="S72" s="32" t="n"/>
       <c r="T72" s="32" t="n"/>
@@ -27839,6 +28487,7 @@
       <c r="W2" s="401" t="n"/>
       <c r="X2" s="403" t="n"/>
     </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="3" t="n"/>
       <c r="B4" s="171" t="n">
@@ -29512,6 +30161,9 @@
         <v/>
       </c>
     </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" s="168" t="inlineStr">
         <is>
@@ -30973,23 +31625,47 @@
       <c r="AF51" s="190" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="24" t="n"/>
+      <c r="A52" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B52" s="171" t="n"/>
-      <c r="C52" s="171" t="n"/>
+      <c r="C52" s="171" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
       <c r="D52" s="171" t="n"/>
-      <c r="E52" s="171" t="n"/>
+      <c r="E52" s="171" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F52" s="171" t="n"/>
       <c r="G52" s="170" t="n"/>
       <c r="H52" s="405" t="n"/>
       <c r="I52" s="404" t="n"/>
-      <c r="J52" s="171" t="n"/>
+      <c r="J52" s="171" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
       <c r="K52" s="405" t="n"/>
       <c r="L52" s="405" t="n"/>
       <c r="M52" s="404" t="n"/>
-      <c r="N52" s="170" t="n"/>
+      <c r="N52" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O52" s="405" t="n"/>
       <c r="P52" s="404" t="n"/>
-      <c r="Q52" s="190" t="n"/>
+      <c r="Q52" s="190" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 13:30-22:00 Submit Date: 2024-03-25, Approver: Oluwarotimi Malomo, Hours Submitted: 8.0</t>
+        </is>
+      </c>
       <c r="R52" s="190" t="n"/>
       <c r="S52" s="190" t="n"/>
       <c r="T52" s="190" t="n"/>
@@ -31007,23 +31683,47 @@
       <c r="AF52" s="190" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="24" t="n"/>
+      <c r="A53" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
       <c r="B53" s="171" t="n"/>
-      <c r="C53" s="171" t="n"/>
+      <c r="C53" s="171" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
       <c r="D53" s="171" t="n"/>
-      <c r="E53" s="171" t="n"/>
+      <c r="E53" s="171" t="inlineStr">
+        <is>
+          <t>US Partial</t>
+        </is>
+      </c>
       <c r="F53" s="171" t="n"/>
       <c r="G53" s="170" t="n"/>
       <c r="H53" s="405" t="n"/>
       <c r="I53" s="404" t="n"/>
-      <c r="J53" s="171" t="n"/>
+      <c r="J53" s="171" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
       <c r="K53" s="405" t="n"/>
       <c r="L53" s="405" t="n"/>
       <c r="M53" s="404" t="n"/>
-      <c r="N53" s="170" t="n"/>
+      <c r="N53" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O53" s="405" t="n"/>
       <c r="P53" s="404" t="n"/>
-      <c r="Q53" s="190" t="n"/>
+      <c r="Q53" s="190" t="inlineStr">
+        <is>
+          <t>US Partial 18:05-22:00 Submit Date: 2024-03-27, Approver: Oluwarotimi Malomo, Hours Submitted: 4.0</t>
+        </is>
+      </c>
       <c r="R53" s="190" t="n"/>
       <c r="S53" s="190" t="n"/>
       <c r="T53" s="190" t="n"/>
@@ -31041,23 +31741,47 @@
       <c r="AF53" s="190" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="24" t="n"/>
+      <c r="A54" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
       <c r="B54" s="171" t="n"/>
-      <c r="C54" s="171" t="n"/>
+      <c r="C54" s="171" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
       <c r="D54" s="171" t="n"/>
-      <c r="E54" s="171" t="n"/>
+      <c r="E54" s="171" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F54" s="171" t="n"/>
       <c r="G54" s="170" t="n"/>
       <c r="H54" s="405" t="n"/>
       <c r="I54" s="404" t="n"/>
-      <c r="J54" s="171" t="n"/>
+      <c r="J54" s="171" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
       <c r="K54" s="405" t="n"/>
       <c r="L54" s="405" t="n"/>
       <c r="M54" s="404" t="n"/>
-      <c r="N54" s="170" t="n"/>
+      <c r="N54" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O54" s="405" t="n"/>
       <c r="P54" s="404" t="n"/>
-      <c r="Q54" s="190" t="n"/>
+      <c r="Q54" s="190" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 13:30-22:00 Submit Date: 2024-04-24, Approver: Oluwarotimi Malomo, Hours Submitted: 8.0</t>
+        </is>
+      </c>
       <c r="R54" s="190" t="n"/>
       <c r="S54" s="190" t="n"/>
       <c r="T54" s="190" t="n"/>
@@ -31075,23 +31799,47 @@
       <c r="AF54" s="190" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="24" t="n"/>
+      <c r="A55" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
       <c r="B55" s="171" t="n"/>
-      <c r="C55" s="171" t="n"/>
+      <c r="C55" s="171" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
       <c r="D55" s="171" t="n"/>
-      <c r="E55" s="171" t="n"/>
+      <c r="E55" s="171" t="inlineStr">
+        <is>
+          <t>US Partial</t>
+        </is>
+      </c>
       <c r="F55" s="171" t="n"/>
       <c r="G55" s="170" t="n"/>
       <c r="H55" s="405" t="n"/>
       <c r="I55" s="404" t="n"/>
-      <c r="J55" s="171" t="n"/>
+      <c r="J55" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K55" s="405" t="n"/>
       <c r="L55" s="405" t="n"/>
       <c r="M55" s="404" t="n"/>
-      <c r="N55" s="170" t="n"/>
+      <c r="N55" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O55" s="405" t="n"/>
       <c r="P55" s="404" t="n"/>
-      <c r="Q55" s="190" t="n"/>
+      <c r="Q55" s="190" t="inlineStr">
+        <is>
+          <t>US Partial 15:30-22:00 Submit Date: 2024-04-26, Approver: Oluwarotimi Malomo, Hours Submitted: 6.0</t>
+        </is>
+      </c>
       <c r="R55" s="190" t="n"/>
       <c r="S55" s="190" t="n"/>
       <c r="T55" s="190" t="n"/>
@@ -36669,24 +37417,16 @@
       <c r="G39" s="170" t="n"/>
       <c r="H39" s="405" t="n"/>
       <c r="I39" s="404" t="n"/>
-      <c r="J39" s="171" t="inlineStr">
-        <is>
-          <t>PTO</t>
-        </is>
-      </c>
+      <c r="J39" s="171" t="n"/>
       <c r="K39" s="405" t="n"/>
       <c r="L39" s="405" t="n"/>
       <c r="M39" s="404" t="n"/>
-      <c r="N39" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N39" s="170" t="n"/>
       <c r="O39" s="405" t="n"/>
       <c r="P39" s="404" t="n"/>
       <c r="Q39" s="31" t="inlineStr">
         <is>
-          <t>US Partial 14:35-18:30 Submit Date: 2024-02-21, Approver: Oluwarotimi Malomo, Hours Submitted: 4.0</t>
+          <t>US Partial 14:35-18:30</t>
         </is>
       </c>
       <c r="R39" s="32" t="n"/>
@@ -36706,23 +37446,47 @@
       <c r="AF39" s="33" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="24" t="n"/>
+      <c r="A40" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
       <c r="B40" s="171" t="n"/>
-      <c r="C40" s="171" t="n"/>
+      <c r="C40" s="171" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
       <c r="D40" s="25" t="n"/>
-      <c r="E40" s="26" t="n"/>
+      <c r="E40" s="26" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="170" t="n"/>
       <c r="H40" s="405" t="n"/>
       <c r="I40" s="404" t="n"/>
-      <c r="J40" s="171" t="n"/>
+      <c r="J40" s="171" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
       <c r="K40" s="405" t="n"/>
       <c r="L40" s="405" t="n"/>
       <c r="M40" s="404" t="n"/>
-      <c r="N40" s="170" t="n"/>
+      <c r="N40" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O40" s="405" t="n"/>
       <c r="P40" s="404" t="n"/>
-      <c r="Q40" s="31" t="n"/>
+      <c r="Q40" s="31" t="inlineStr">
+        <is>
+          <t>US Tardy 10:00-11:01 Submit Date: 2024-04-22, Approver: Oluwarotimi Malomo, Hours Submitted: 1.0</t>
+        </is>
+      </c>
       <c r="R40" s="32" t="n"/>
       <c r="S40" s="32" t="n"/>
       <c r="T40" s="32" t="n"/>
@@ -39307,7 +40071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="G55" sqref="G55:I55"/>
@@ -42161,24 +42925,16 @@
       <c r="G62" s="170" t="n"/>
       <c r="H62" s="405" t="n"/>
       <c r="I62" s="404" t="n"/>
-      <c r="J62" s="171" t="inlineStr">
-        <is>
-          <t>PTO</t>
-        </is>
-      </c>
+      <c r="J62" s="171" t="n"/>
       <c r="K62" s="405" t="n"/>
       <c r="L62" s="405" t="n"/>
       <c r="M62" s="404" t="n"/>
-      <c r="N62" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N62" s="170" t="n"/>
       <c r="O62" s="405" t="n"/>
       <c r="P62" s="404" t="n"/>
       <c r="Q62" s="31" t="inlineStr">
         <is>
-          <t>US Tardy 10:30-13:30 Submit Date: 2024-02-23, Approver: Oluwarotimi Malomo, Hours Submitted: 3.0</t>
+          <t>US Tardy 10:30-13:30</t>
         </is>
       </c>
       <c r="R62" s="32" t="n"/>
@@ -42219,24 +42975,16 @@
       <c r="G63" s="170" t="n"/>
       <c r="H63" s="405" t="n"/>
       <c r="I63" s="404" t="n"/>
-      <c r="J63" s="171" t="inlineStr">
-        <is>
-          <t>PTO</t>
-        </is>
-      </c>
+      <c r="J63" s="171" t="n"/>
       <c r="K63" s="405" t="n"/>
       <c r="L63" s="405" t="n"/>
       <c r="M63" s="404" t="n"/>
-      <c r="N63" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N63" s="170" t="n"/>
       <c r="O63" s="405" t="n"/>
       <c r="P63" s="404" t="n"/>
       <c r="Q63" s="31" t="inlineStr">
         <is>
-          <t>US Tardy 10:30-13:33 Submit Date: 2024-02-25, Approver: Oluwarotimi Malomo, Hours Submitted: 2.0 Submit Date: 2024-02-25, Approver: Oluwarotimi Malomo, Hours Submitted: 1.0</t>
+          <t>US Tardy 10:30-13:33</t>
         </is>
       </c>
       <c r="R63" s="32" t="n"/>
@@ -42277,24 +43025,16 @@
       <c r="G64" s="170" t="n"/>
       <c r="H64" s="405" t="n"/>
       <c r="I64" s="404" t="n"/>
-      <c r="J64" s="171" t="inlineStr">
-        <is>
-          <t>PTO</t>
-        </is>
-      </c>
+      <c r="J64" s="171" t="n"/>
       <c r="K64" s="405" t="n"/>
       <c r="L64" s="405" t="n"/>
       <c r="M64" s="404" t="n"/>
-      <c r="N64" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N64" s="170" t="n"/>
       <c r="O64" s="405" t="n"/>
       <c r="P64" s="404" t="n"/>
       <c r="Q64" s="31" t="inlineStr">
         <is>
-          <t>US Partial 16:36-20:45 Submit Date: 2024-02-27, Approver: Oluwarotimi Malomo, Hours Submitted: 4.0</t>
+          <t>US Partial 16:36-20:45</t>
         </is>
       </c>
       <c r="R64" s="32" t="n"/>
@@ -42335,24 +43075,16 @@
       <c r="G65" s="170" t="n"/>
       <c r="H65" s="405" t="n"/>
       <c r="I65" s="404" t="n"/>
-      <c r="J65" s="171" t="inlineStr">
-        <is>
-          <t>Bereav-Extended Family</t>
-        </is>
-      </c>
+      <c r="J65" s="171" t="n"/>
       <c r="K65" s="405" t="n"/>
       <c r="L65" s="405" t="n"/>
       <c r="M65" s="404" t="n"/>
-      <c r="N65" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N65" s="170" t="n"/>
       <c r="O65" s="405" t="n"/>
       <c r="P65" s="404" t="n"/>
       <c r="Q65" s="31" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 10:30-20:45 Submit Date: 2024-03-09, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+          <t>US Absent Unplanned 10:30-20:45</t>
         </is>
       </c>
       <c r="R65" s="32" t="n"/>
@@ -42393,24 +43125,16 @@
       <c r="G66" s="170" t="n"/>
       <c r="H66" s="405" t="n"/>
       <c r="I66" s="404" t="n"/>
-      <c r="J66" s="171" t="inlineStr">
-        <is>
-          <t>Bereav-Extended Family</t>
-        </is>
-      </c>
+      <c r="J66" s="171" t="n"/>
       <c r="K66" s="405" t="n"/>
       <c r="L66" s="405" t="n"/>
       <c r="M66" s="404" t="n"/>
-      <c r="N66" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N66" s="170" t="n"/>
       <c r="O66" s="405" t="n"/>
       <c r="P66" s="404" t="n"/>
       <c r="Q66" s="31" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 10:30-20:45 Submit Date: 2024-03-09, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+          <t>US Absent Unplanned 10:30-20:45</t>
         </is>
       </c>
       <c r="R66" s="32" t="n"/>
@@ -42451,16 +43175,24 @@
       <c r="G67" s="170" t="n"/>
       <c r="H67" s="405" t="n"/>
       <c r="I67" s="404" t="n"/>
-      <c r="J67" s="171" t="n"/>
+      <c r="J67" s="171" t="inlineStr">
+        <is>
+          <t>Holiday Pay</t>
+        </is>
+      </c>
       <c r="K67" s="405" t="n"/>
       <c r="L67" s="405" t="n"/>
       <c r="M67" s="404" t="n"/>
-      <c r="N67" s="170" t="n"/>
+      <c r="N67" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O67" s="405" t="n"/>
       <c r="P67" s="404" t="n"/>
       <c r="Q67" s="31" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 10:30-20:45</t>
+          <t>US Absent Unplanned 10:30-20:45 Submit Date: 2024-03-12, Approver: Oluwarotimi Malomo, Hours Submitted: 4.0 Submit Date: 2024-03-12, Approver: Oluwarotimi Malomo, Hours Submitted: 6.0</t>
         </is>
       </c>
       <c r="R67" s="32" t="n"/>
@@ -42501,16 +43233,24 @@
       <c r="G68" s="170" t="n"/>
       <c r="H68" s="405" t="n"/>
       <c r="I68" s="404" t="n"/>
-      <c r="J68" s="171" t="n"/>
+      <c r="J68" s="171" t="inlineStr">
+        <is>
+          <t>Holiday Pay</t>
+        </is>
+      </c>
       <c r="K68" s="405" t="n"/>
       <c r="L68" s="405" t="n"/>
       <c r="M68" s="404" t="n"/>
-      <c r="N68" s="170" t="n"/>
+      <c r="N68" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O68" s="405" t="n"/>
       <c r="P68" s="404" t="n"/>
       <c r="Q68" s="31" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 10:30-20:45</t>
+          <t>US Absent Unplanned 10:30-20:45 Submit Date: 2024-03-12, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
         </is>
       </c>
       <c r="R68" s="32" t="n"/>
@@ -42551,16 +43291,24 @@
       <c r="G69" s="170" t="n"/>
       <c r="H69" s="405" t="n"/>
       <c r="I69" s="404" t="n"/>
-      <c r="J69" s="171" t="n"/>
+      <c r="J69" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K69" s="405" t="n"/>
       <c r="L69" s="405" t="n"/>
       <c r="M69" s="404" t="n"/>
-      <c r="N69" s="170" t="n"/>
+      <c r="N69" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O69" s="405" t="n"/>
       <c r="P69" s="404" t="n"/>
       <c r="Q69" s="31" t="inlineStr">
         <is>
-          <t>US Tardy 10:30-14:30</t>
+          <t>US Tardy 10:30-14:30 Submit Date: 2024-03-12, Approver: Oluwarotimi Malomo, Hours Submitted: 4.0</t>
         </is>
       </c>
       <c r="R69" s="32" t="n"/>
@@ -42580,23 +43328,47 @@
       <c r="AF69" s="33" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="24" t="n"/>
+      <c r="A70" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B70" s="171" t="n"/>
-      <c r="C70" s="171" t="n"/>
+      <c r="C70" s="171" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="D70" s="25" t="n"/>
-      <c r="E70" s="26" t="n"/>
+      <c r="E70" s="26" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
       <c r="F70" s="27" t="n"/>
       <c r="G70" s="170" t="n"/>
       <c r="H70" s="405" t="n"/>
       <c r="I70" s="404" t="n"/>
-      <c r="J70" s="171" t="n"/>
+      <c r="J70" s="171" t="inlineStr">
+        <is>
+          <t>Holiday Pay</t>
+        </is>
+      </c>
       <c r="K70" s="405" t="n"/>
       <c r="L70" s="405" t="n"/>
       <c r="M70" s="404" t="n"/>
-      <c r="N70" s="170" t="n"/>
+      <c r="N70" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O70" s="405" t="n"/>
       <c r="P70" s="404" t="n"/>
-      <c r="Q70" s="31" t="n"/>
+      <c r="Q70" s="31" t="inlineStr">
+        <is>
+          <t>US Tardy 10:30-14:30 Submit Date: 2024-03-18, Approver: Oluwarotimi Malomo, Hours Submitted: 4.0</t>
+        </is>
+      </c>
       <c r="R70" s="32" t="n"/>
       <c r="S70" s="32" t="n"/>
       <c r="T70" s="32" t="n"/>
@@ -42614,23 +43386,47 @@
       <c r="AF70" s="33" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="24" t="n"/>
+      <c r="A71" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
       <c r="B71" s="171" t="n"/>
-      <c r="C71" s="171" t="n"/>
+      <c r="C71" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D71" s="25" t="n"/>
-      <c r="E71" s="26" t="n"/>
+      <c r="E71" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F71" s="27" t="n"/>
       <c r="G71" s="170" t="n"/>
       <c r="H71" s="405" t="n"/>
       <c r="I71" s="404" t="n"/>
-      <c r="J71" s="171" t="n"/>
+      <c r="J71" s="171" t="inlineStr">
+        <is>
+          <t>Holiday Pay</t>
+        </is>
+      </c>
       <c r="K71" s="405" t="n"/>
       <c r="L71" s="405" t="n"/>
       <c r="M71" s="404" t="n"/>
-      <c r="N71" s="170" t="n"/>
+      <c r="N71" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O71" s="405" t="n"/>
       <c r="P71" s="404" t="n"/>
-      <c r="Q71" s="31" t="n"/>
+      <c r="Q71" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 10:30-20:45 Submit Date: 2024-03-24, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+        </is>
+      </c>
       <c r="R71" s="32" t="n"/>
       <c r="S71" s="32" t="n"/>
       <c r="T71" s="32" t="n"/>
@@ -42648,23 +43444,47 @@
       <c r="AF71" s="33" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="24" t="n"/>
+      <c r="A72" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B72" s="171" t="n"/>
-      <c r="C72" s="171" t="n"/>
+      <c r="C72" s="171" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
       <c r="D72" s="25" t="n"/>
-      <c r="E72" s="26" t="n"/>
+      <c r="E72" s="26" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
       <c r="F72" s="27" t="n"/>
       <c r="G72" s="170" t="n"/>
       <c r="H72" s="405" t="n"/>
       <c r="I72" s="404" t="n"/>
-      <c r="J72" s="171" t="n"/>
+      <c r="J72" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K72" s="405" t="n"/>
       <c r="L72" s="405" t="n"/>
       <c r="M72" s="404" t="n"/>
-      <c r="N72" s="170" t="n"/>
+      <c r="N72" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O72" s="405" t="n"/>
       <c r="P72" s="404" t="n"/>
-      <c r="Q72" s="31" t="n"/>
+      <c r="Q72" s="31" t="inlineStr">
+        <is>
+          <t>US Tardy 10:30-13:30 Submit Date: 2024-03-31, Approver: Oluwarotimi Malomo, Hours Submitted: 3.0</t>
+        </is>
+      </c>
       <c r="R72" s="32" t="n"/>
       <c r="S72" s="32" t="n"/>
       <c r="T72" s="32" t="n"/>
@@ -42682,11 +43502,23 @@
       <c r="AF72" s="33" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="24" t="n"/>
+      <c r="A73" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B73" s="171" t="n"/>
-      <c r="C73" s="171" t="n"/>
+      <c r="C73" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D73" s="25" t="n"/>
-      <c r="E73" s="26" t="n"/>
+      <c r="E73" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F73" s="27" t="n"/>
       <c r="G73" s="170" t="n"/>
       <c r="H73" s="405" t="n"/>
@@ -42698,7 +43530,11 @@
       <c r="N73" s="170" t="n"/>
       <c r="O73" s="405" t="n"/>
       <c r="P73" s="404" t="n"/>
-      <c r="Q73" s="31" t="n"/>
+      <c r="Q73" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 10:30-20:45</t>
+        </is>
+      </c>
       <c r="R73" s="32" t="n"/>
       <c r="S73" s="32" t="n"/>
       <c r="T73" s="32" t="n"/>
@@ -42716,23 +43552,47 @@
       <c r="AF73" s="33" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="24" t="n"/>
+      <c r="A74" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
       <c r="B74" s="171" t="n"/>
-      <c r="C74" s="171" t="n"/>
+      <c r="C74" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D74" s="25" t="n"/>
-      <c r="E74" s="26" t="n"/>
+      <c r="E74" s="26" t="inlineStr">
+        <is>
+          <t>US NCL</t>
+        </is>
+      </c>
       <c r="F74" s="27" t="n"/>
       <c r="G74" s="170" t="n"/>
       <c r="H74" s="405" t="n"/>
       <c r="I74" s="404" t="n"/>
-      <c r="J74" s="171" t="n"/>
+      <c r="J74" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K74" s="405" t="n"/>
       <c r="L74" s="405" t="n"/>
       <c r="M74" s="404" t="n"/>
-      <c r="N74" s="170" t="n"/>
+      <c r="N74" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O74" s="405" t="n"/>
       <c r="P74" s="404" t="n"/>
-      <c r="Q74" s="31" t="n"/>
+      <c r="Q74" s="31" t="inlineStr">
+        <is>
+          <t>US NCL 10:30-20:45 Submit Date: 2024-04-05, Approver: Oluwarotimi Malomo, Hours Submitted: 8.0 Submit Date: 2024-04-05, Approver: Oluwarotimi Malomo, Hours Submitted: 2.0</t>
+        </is>
+      </c>
       <c r="R74" s="32" t="n"/>
       <c r="S74" s="32" t="n"/>
       <c r="T74" s="32" t="n"/>
@@ -42750,11 +43610,23 @@
       <c r="AF74" s="33" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="24" t="n"/>
+      <c r="A75" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
       <c r="B75" s="171" t="n"/>
-      <c r="C75" s="171" t="n"/>
+      <c r="C75" s="171" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
       <c r="D75" s="25" t="n"/>
-      <c r="E75" s="26" t="n"/>
+      <c r="E75" s="26" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
       <c r="F75" s="27" t="n"/>
       <c r="G75" s="170" t="n"/>
       <c r="H75" s="405" t="n"/>
@@ -42766,7 +43638,11 @@
       <c r="N75" s="170" t="n"/>
       <c r="O75" s="405" t="n"/>
       <c r="P75" s="404" t="n"/>
-      <c r="Q75" s="31" t="n"/>
+      <c r="Q75" s="31" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 10:30-20:45</t>
+        </is>
+      </c>
       <c r="R75" s="32" t="n"/>
       <c r="S75" s="32" t="n"/>
       <c r="T75" s="32" t="n"/>
@@ -42782,6 +43658,126 @@
       <c r="AD75" s="32" t="n"/>
       <c r="AE75" s="32" t="n"/>
       <c r="AF75" s="33" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 10:30-20:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>US Tardy 10:30-14:32 Submit Date: 2024-04-15, Approver: Oluwarotimi Malomo, Hours Submitted: 4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>US Tardy 10:30-12:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 10:30-20:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>US Partial</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>US Partial 14:49-20:45</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="191">
@@ -45235,24 +46231,16 @@
       <c r="G52" s="170" t="n"/>
       <c r="H52" s="405" t="n"/>
       <c r="I52" s="404" t="n"/>
-      <c r="J52" s="171" t="inlineStr">
-        <is>
-          <t>PTO</t>
-        </is>
-      </c>
+      <c r="J52" s="171" t="n"/>
       <c r="K52" s="405" t="n"/>
       <c r="L52" s="405" t="n"/>
       <c r="M52" s="404" t="n"/>
-      <c r="N52" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N52" s="170" t="n"/>
       <c r="O52" s="405" t="n"/>
       <c r="P52" s="404" t="n"/>
       <c r="Q52" s="141" t="inlineStr">
         <is>
-          <t>US Partial 18:00-22:00 Submit Date: 2024-02-21, Approver: Oluwarotimi Malomo, Hours Submitted: 4.0</t>
+          <t>US Partial 18:00-22:00</t>
         </is>
       </c>
       <c r="R52" s="405" t="n"/>
@@ -45343,24 +46331,16 @@
       <c r="G54" s="170" t="n"/>
       <c r="H54" s="405" t="n"/>
       <c r="I54" s="404" t="n"/>
-      <c r="J54" s="171" t="inlineStr">
-        <is>
-          <t>Sick</t>
-        </is>
-      </c>
+      <c r="J54" s="171" t="n"/>
       <c r="K54" s="405" t="n"/>
       <c r="L54" s="405" t="n"/>
       <c r="M54" s="404" t="n"/>
-      <c r="N54" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N54" s="170" t="n"/>
       <c r="O54" s="405" t="n"/>
       <c r="P54" s="404" t="n"/>
       <c r="Q54" s="141" t="inlineStr">
         <is>
-          <t>US Tardy 11:45-13:45 Submit Date: 2024-02-27, Approver: Oluwarotimi Malomo, Hours Submitted: 2.0</t>
+          <t>US Tardy 11:45-13:45</t>
         </is>
       </c>
       <c r="R54" s="405" t="n"/>
@@ -45401,24 +46381,16 @@
       <c r="G55" s="170" t="n"/>
       <c r="H55" s="405" t="n"/>
       <c r="I55" s="404" t="n"/>
-      <c r="J55" s="171" t="inlineStr">
-        <is>
-          <t>PTO</t>
-        </is>
-      </c>
+      <c r="J55" s="171" t="n"/>
       <c r="K55" s="405" t="n"/>
       <c r="L55" s="405" t="n"/>
       <c r="M55" s="404" t="n"/>
-      <c r="N55" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N55" s="170" t="n"/>
       <c r="O55" s="405" t="n"/>
       <c r="P55" s="404" t="n"/>
       <c r="Q55" s="141" t="inlineStr">
         <is>
-          <t>US Tardy 11:45-12:48 Submit Date: 2024-03-06, Approver: Oluwarotimi Malomo, Hours Submitted: 1.0</t>
+          <t>US Tardy 11:45-12:48</t>
         </is>
       </c>
       <c r="R55" s="405" t="n"/>
@@ -45459,24 +46431,16 @@
       <c r="G56" s="170" t="n"/>
       <c r="H56" s="405" t="n"/>
       <c r="I56" s="404" t="n"/>
-      <c r="J56" s="171" t="inlineStr">
-        <is>
-          <t>Sick</t>
-        </is>
-      </c>
+      <c r="J56" s="171" t="n"/>
       <c r="K56" s="405" t="n"/>
       <c r="L56" s="405" t="n"/>
       <c r="M56" s="404" t="n"/>
-      <c r="N56" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N56" s="170" t="n"/>
       <c r="O56" s="405" t="n"/>
       <c r="P56" s="404" t="n"/>
       <c r="Q56" s="141" t="inlineStr">
         <is>
-          <t>US Tardy 11:45-12:00 Submit Date: 2024-03-11, Approver: Oluwarotimi Malomo, Hours Submitted: 5.0</t>
+          <t>US Tardy 11:45-12:00</t>
         </is>
       </c>
       <c r="R56" s="405" t="n"/>
@@ -45496,23 +46460,47 @@
       <c r="AF56" s="404" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="24" t="n"/>
+      <c r="A57" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
       <c r="B57" s="171" t="n"/>
-      <c r="C57" s="171" t="n"/>
+      <c r="C57" s="171" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="D57" s="25" t="n"/>
-      <c r="E57" s="26" t="n"/>
+      <c r="E57" s="26" t="inlineStr">
+        <is>
+          <t>US Partial</t>
+        </is>
+      </c>
       <c r="F57" s="27" t="n"/>
       <c r="G57" s="170" t="n"/>
       <c r="H57" s="405" t="n"/>
       <c r="I57" s="404" t="n"/>
-      <c r="J57" s="171" t="n"/>
+      <c r="J57" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K57" s="405" t="n"/>
       <c r="L57" s="405" t="n"/>
       <c r="M57" s="404" t="n"/>
-      <c r="N57" s="170" t="n"/>
+      <c r="N57" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O57" s="405" t="n"/>
       <c r="P57" s="404" t="n"/>
-      <c r="Q57" s="141" t="n"/>
+      <c r="Q57" s="141" t="inlineStr">
+        <is>
+          <t>US Partial 21:00-22:00 Submit Date: 2024-03-18, Approver: Oluwarotimi Malomo, Hours Submitted: 1.0</t>
+        </is>
+      </c>
       <c r="R57" s="405" t="n"/>
       <c r="S57" s="405" t="n"/>
       <c r="T57" s="405" t="n"/>
@@ -45530,23 +46518,47 @@
       <c r="AF57" s="404" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="24" t="n"/>
+      <c r="A58" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
       <c r="B58" s="171" t="n"/>
-      <c r="C58" s="171" t="n"/>
+      <c r="C58" s="171" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
       <c r="D58" s="25" t="n"/>
-      <c r="E58" s="26" t="n"/>
+      <c r="E58" s="26" t="inlineStr">
+        <is>
+          <t>US Partial</t>
+        </is>
+      </c>
       <c r="F58" s="27" t="n"/>
       <c r="G58" s="170" t="n"/>
       <c r="H58" s="405" t="n"/>
       <c r="I58" s="404" t="n"/>
-      <c r="J58" s="171" t="n"/>
+      <c r="J58" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K58" s="405" t="n"/>
       <c r="L58" s="405" t="n"/>
       <c r="M58" s="404" t="n"/>
-      <c r="N58" s="170" t="n"/>
+      <c r="N58" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O58" s="405" t="n"/>
       <c r="P58" s="404" t="n"/>
-      <c r="Q58" s="141" t="n"/>
+      <c r="Q58" s="141" t="inlineStr">
+        <is>
+          <t>US Partial 17:46-22:00 Submit Date: 2024-03-22, Approver: Oluwarotimi Malomo, Hours Submitted: 4.0</t>
+        </is>
+      </c>
       <c r="R58" s="405" t="n"/>
       <c r="S58" s="405" t="n"/>
       <c r="T58" s="405" t="n"/>
@@ -45564,23 +46576,47 @@
       <c r="AF58" s="404" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="24" t="n"/>
+      <c r="A59" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
       <c r="B59" s="171" t="n"/>
-      <c r="C59" s="171" t="n"/>
+      <c r="C59" s="171" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
       <c r="D59" s="25" t="n"/>
-      <c r="E59" s="26" t="n"/>
+      <c r="E59" s="26" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
       <c r="F59" s="27" t="n"/>
       <c r="G59" s="170" t="n"/>
       <c r="H59" s="405" t="n"/>
       <c r="I59" s="404" t="n"/>
-      <c r="J59" s="171" t="n"/>
+      <c r="J59" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K59" s="405" t="n"/>
       <c r="L59" s="405" t="n"/>
       <c r="M59" s="404" t="n"/>
-      <c r="N59" s="170" t="n"/>
+      <c r="N59" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O59" s="405" t="n"/>
       <c r="P59" s="404" t="n"/>
-      <c r="Q59" s="141" t="n"/>
+      <c r="Q59" s="141" t="inlineStr">
+        <is>
+          <t>US Tardy 11:45-12:46 Submit Date: 2024-03-26, Approver: Oluwarotimi Malomo, Hours Submitted: 1.0</t>
+        </is>
+      </c>
       <c r="R59" s="405" t="n"/>
       <c r="S59" s="405" t="n"/>
       <c r="T59" s="405" t="n"/>
@@ -45598,23 +46634,47 @@
       <c r="AF59" s="404" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="24" t="n"/>
+      <c r="A60" s="24" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
       <c r="B60" s="171" t="n"/>
-      <c r="C60" s="171" t="n"/>
+      <c r="C60" s="171" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
       <c r="D60" s="25" t="n"/>
-      <c r="E60" s="26" t="n"/>
+      <c r="E60" s="26" t="inlineStr">
+        <is>
+          <t>US NCL</t>
+        </is>
+      </c>
       <c r="F60" s="27" t="n"/>
       <c r="G60" s="170" t="n"/>
       <c r="H60" s="405" t="n"/>
       <c r="I60" s="404" t="n"/>
-      <c r="J60" s="171" t="n"/>
+      <c r="J60" s="171" t="inlineStr">
+        <is>
+          <t>Holiday Pay</t>
+        </is>
+      </c>
       <c r="K60" s="405" t="n"/>
       <c r="L60" s="405" t="n"/>
       <c r="M60" s="404" t="n"/>
-      <c r="N60" s="170" t="n"/>
+      <c r="N60" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O60" s="405" t="n"/>
       <c r="P60" s="404" t="n"/>
-      <c r="Q60" s="141" t="n"/>
+      <c r="Q60" s="141" t="inlineStr">
+        <is>
+          <t>US NCL 11:45-18:00 Submit Date: 2024-03-22, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+        </is>
+      </c>
       <c r="R60" s="405" t="n"/>
       <c r="S60" s="405" t="n"/>
       <c r="T60" s="405" t="n"/>
@@ -45632,11 +46692,23 @@
       <c r="AF60" s="404" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="24" t="n"/>
+      <c r="A61" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B61" s="171" t="n"/>
-      <c r="C61" s="171" t="n"/>
+      <c r="C61" s="171" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
       <c r="D61" s="25" t="n"/>
-      <c r="E61" s="26" t="n"/>
+      <c r="E61" s="26" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
       <c r="F61" s="27" t="n"/>
       <c r="G61" s="170" t="n"/>
       <c r="H61" s="405" t="n"/>
@@ -45648,7 +46720,11 @@
       <c r="N61" s="170" t="n"/>
       <c r="O61" s="405" t="n"/>
       <c r="P61" s="404" t="n"/>
-      <c r="Q61" s="141" t="n"/>
+      <c r="Q61" s="141" t="inlineStr">
+        <is>
+          <t>US Tardy 11:45-11:55</t>
+        </is>
+      </c>
       <c r="R61" s="405" t="n"/>
       <c r="S61" s="405" t="n"/>
       <c r="T61" s="405" t="n"/>
@@ -45666,23 +46742,47 @@
       <c r="AF61" s="404" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="24" t="n"/>
+      <c r="A62" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
       <c r="B62" s="171" t="n"/>
-      <c r="C62" s="171" t="n"/>
+      <c r="C62" s="171" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
       <c r="D62" s="25" t="n"/>
-      <c r="E62" s="26" t="n"/>
+      <c r="E62" s="26" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
       <c r="F62" s="27" t="n"/>
       <c r="G62" s="170" t="n"/>
       <c r="H62" s="405" t="n"/>
       <c r="I62" s="404" t="n"/>
-      <c r="J62" s="171" t="n"/>
+      <c r="J62" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K62" s="405" t="n"/>
       <c r="L62" s="405" t="n"/>
       <c r="M62" s="404" t="n"/>
-      <c r="N62" s="170" t="n"/>
+      <c r="N62" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O62" s="405" t="n"/>
       <c r="P62" s="404" t="n"/>
-      <c r="Q62" s="141" t="n"/>
+      <c r="Q62" s="141" t="inlineStr">
+        <is>
+          <t>US Tardy 11:45-12:50 Submit Date: 2024-04-02, Approver: Oluwarotimi Malomo, Hours Submitted: 1.0</t>
+        </is>
+      </c>
       <c r="R62" s="405" t="n"/>
       <c r="S62" s="405" t="n"/>
       <c r="T62" s="405" t="n"/>
@@ -45700,23 +46800,47 @@
       <c r="AF62" s="404" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="24" t="n"/>
+      <c r="A63" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
       <c r="B63" s="171" t="n"/>
-      <c r="C63" s="171" t="n"/>
+      <c r="C63" s="171" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="D63" s="25" t="n"/>
-      <c r="E63" s="26" t="n"/>
+      <c r="E63" s="26" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
       <c r="F63" s="27" t="n"/>
       <c r="G63" s="170" t="n"/>
       <c r="H63" s="405" t="n"/>
       <c r="I63" s="404" t="n"/>
-      <c r="J63" s="171" t="n"/>
+      <c r="J63" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K63" s="405" t="n"/>
       <c r="L63" s="405" t="n"/>
       <c r="M63" s="404" t="n"/>
-      <c r="N63" s="170" t="n"/>
+      <c r="N63" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O63" s="405" t="n"/>
       <c r="P63" s="404" t="n"/>
-      <c r="Q63" s="141" t="n"/>
+      <c r="Q63" s="141" t="inlineStr">
+        <is>
+          <t>US Tardy 11:45-12:45 Submit Date: 2024-04-15, Approver: Oluwarotimi Malomo, Hours Submitted: 1.0</t>
+        </is>
+      </c>
       <c r="R63" s="405" t="n"/>
       <c r="S63" s="405" t="n"/>
       <c r="T63" s="405" t="n"/>
@@ -45734,11 +46858,23 @@
       <c r="AF63" s="404" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="24" t="n"/>
+      <c r="A64" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
       <c r="B64" s="171" t="n"/>
-      <c r="C64" s="171" t="n"/>
+      <c r="C64" s="171" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
       <c r="D64" s="25" t="n"/>
-      <c r="E64" s="26" t="n"/>
+      <c r="E64" s="26" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
       <c r="F64" s="27" t="n"/>
       <c r="G64" s="170" t="n"/>
       <c r="H64" s="405" t="n"/>
@@ -45750,7 +46886,11 @@
       <c r="N64" s="170" t="n"/>
       <c r="O64" s="405" t="n"/>
       <c r="P64" s="404" t="n"/>
-      <c r="Q64" s="141" t="n"/>
+      <c r="Q64" s="141" t="inlineStr">
+        <is>
+          <t>US Tardy 11:45-11:56</t>
+        </is>
+      </c>
       <c r="R64" s="405" t="n"/>
       <c r="S64" s="405" t="n"/>
       <c r="T64" s="405" t="n"/>
@@ -45768,23 +46908,47 @@
       <c r="AF64" s="404" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="24" t="n"/>
+      <c r="A65" s="24" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
       <c r="B65" s="171" t="n"/>
-      <c r="C65" s="171" t="n"/>
+      <c r="C65" s="171" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
       <c r="D65" s="25" t="n"/>
-      <c r="E65" s="26" t="n"/>
+      <c r="E65" s="26" t="inlineStr">
+        <is>
+          <t>US Partial</t>
+        </is>
+      </c>
       <c r="F65" s="27" t="n"/>
       <c r="G65" s="170" t="n"/>
       <c r="H65" s="405" t="n"/>
       <c r="I65" s="404" t="n"/>
-      <c r="J65" s="171" t="n"/>
+      <c r="J65" s="171" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
       <c r="K65" s="405" t="n"/>
       <c r="L65" s="405" t="n"/>
       <c r="M65" s="404" t="n"/>
-      <c r="N65" s="170" t="n"/>
+      <c r="N65" s="170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="O65" s="405" t="n"/>
       <c r="P65" s="404" t="n"/>
-      <c r="Q65" s="141" t="n"/>
+      <c r="Q65" s="141" t="inlineStr">
+        <is>
+          <t>US Partial 19:25-22:00 Submit Date: 2024-04-22, Approver: Oluwarotimi Malomo, Hours Submitted: 2.0</t>
+        </is>
+      </c>
       <c r="R65" s="405" t="n"/>
       <c r="S65" s="405" t="n"/>
       <c r="T65" s="405" t="n"/>
@@ -46355,7 +47519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK91"/>
+  <dimension ref="A1:AK94"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="R84" sqref="R84"/>
@@ -50080,19 +51244,9 @@
           <t>US Partial</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Sick</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>US Partial 15:00-16:59 Submit Date: 2024-02-26, Approver: Oluwarotimi Malomo, Hours Submitted: 2.0</t>
+          <t>US Partial 15:00-16:59</t>
         </is>
       </c>
     </row>
@@ -50112,19 +51266,9 @@
           <t>US Partial</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Sick</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>US Partial 13:21-15:25 Submit Date: 2024-03-02, Approver: Oluwarotimi Malomo, Hours Submitted: 2.0</t>
+          <t>US Partial 13:21-15:25</t>
         </is>
       </c>
     </row>
@@ -50147,6 +51291,102 @@
       <c r="Q91" t="inlineStr">
         <is>
           <t>US Tardy 09:00-09:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>US Partial</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>US Partial 11:48-19:15 Submit Date: 2024-03-17, Approver: Oluwarotimi Malomo, Hours Submitted: 8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>US Tardy 09:00-12:00 Submit Date: 2024-03-31, Approver: Oluwarotimi Malomo, Hours Submitted: 3.0 Submit Date: 2024-03-31, Approver: Oluwarotimi Malomo, Hours Submitted: 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>US Tardy 09:00-10:00 Submit Date: 2024-04-06, Approver: Oluwarotimi Malomo, Hours Submitted: 1.0</t>
         </is>
       </c>
     </row>
@@ -50472,7 +51712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL70"/>
+  <dimension ref="A1:DL82"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="J60" sqref="J60:M60"/>
@@ -54697,24 +55937,16 @@
       <c r="G60" s="170" t="n"/>
       <c r="H60" s="405" t="n"/>
       <c r="I60" s="404" t="n"/>
-      <c r="J60" s="171" t="inlineStr">
-        <is>
-          <t>Holiday Pay</t>
-        </is>
-      </c>
+      <c r="J60" s="171" t="n"/>
       <c r="K60" s="405" t="n"/>
       <c r="L60" s="405" t="n"/>
       <c r="M60" s="404" t="n"/>
-      <c r="N60" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N60" s="170" t="n"/>
       <c r="O60" s="405" t="n"/>
       <c r="P60" s="404" t="n"/>
       <c r="Q60" s="31" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 10:00-20:15 Submit Date: 2024-02-25, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+          <t>US Absent Unplanned 10:00-20:15</t>
         </is>
       </c>
       <c r="R60" s="32" t="n"/>
@@ -54755,24 +55987,16 @@
       <c r="G61" s="170" t="n"/>
       <c r="H61" s="405" t="n"/>
       <c r="I61" s="404" t="n"/>
-      <c r="J61" s="171" t="inlineStr">
-        <is>
-          <t>PTO</t>
-        </is>
-      </c>
+      <c r="J61" s="171" t="n"/>
       <c r="K61" s="405" t="n"/>
       <c r="L61" s="405" t="n"/>
       <c r="M61" s="404" t="n"/>
-      <c r="N61" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N61" s="170" t="n"/>
       <c r="O61" s="405" t="n"/>
       <c r="P61" s="404" t="n"/>
       <c r="Q61" s="31" t="inlineStr">
         <is>
-          <t>US Partial 15:44-20:15 Submit Date: 2024-02-18, Approver: Oluwarotimi Malomo, Hours Submitted: 5.0</t>
+          <t>US Partial 15:44-20:15</t>
         </is>
       </c>
       <c r="R61" s="32" t="n"/>
@@ -54863,24 +56087,16 @@
       <c r="G63" s="170" t="n"/>
       <c r="H63" s="405" t="n"/>
       <c r="I63" s="404" t="n"/>
-      <c r="J63" s="171" t="inlineStr">
-        <is>
-          <t>Holiday Pay</t>
-        </is>
-      </c>
+      <c r="J63" s="171" t="n"/>
       <c r="K63" s="405" t="n"/>
       <c r="L63" s="405" t="n"/>
       <c r="M63" s="404" t="n"/>
-      <c r="N63" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N63" s="170" t="n"/>
       <c r="O63" s="405" t="n"/>
       <c r="P63" s="404" t="n"/>
       <c r="Q63" s="31" t="inlineStr">
         <is>
-          <t>US Tardy 10:00-11:50 Submit Date: 2024-02-18, Approver: Oluwarotimi Malomo, Hours Submitted: 1.0</t>
+          <t>US Tardy 10:00-11:50</t>
         </is>
       </c>
       <c r="R63" s="32" t="n"/>
@@ -54971,24 +56187,16 @@
       <c r="G65" s="170" t="n"/>
       <c r="H65" s="405" t="n"/>
       <c r="I65" s="404" t="n"/>
-      <c r="J65" s="171" t="inlineStr">
-        <is>
-          <t>Holiday Pay</t>
-        </is>
-      </c>
+      <c r="J65" s="171" t="n"/>
       <c r="K65" s="405" t="n"/>
       <c r="L65" s="405" t="n"/>
       <c r="M65" s="404" t="n"/>
-      <c r="N65" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N65" s="170" t="n"/>
       <c r="O65" s="405" t="n"/>
       <c r="P65" s="404" t="n"/>
       <c r="Q65" s="31" t="inlineStr">
         <is>
-          <t>US Partial 17:05-20:15 Submit Date: 2024-02-18, Approver: Oluwarotimi Malomo, Hours Submitted: 4.0</t>
+          <t>US Partial 17:05-20:15</t>
         </is>
       </c>
       <c r="R65" s="32" t="n"/>
@@ -55029,24 +56237,16 @@
       <c r="G66" s="170" t="n"/>
       <c r="H66" s="405" t="n"/>
       <c r="I66" s="404" t="n"/>
-      <c r="J66" s="171" t="inlineStr">
-        <is>
-          <t>Holiday Pay</t>
-        </is>
-      </c>
+      <c r="J66" s="171" t="n"/>
       <c r="K66" s="405" t="n"/>
       <c r="L66" s="405" t="n"/>
       <c r="M66" s="404" t="n"/>
-      <c r="N66" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N66" s="170" t="n"/>
       <c r="O66" s="405" t="n"/>
       <c r="P66" s="404" t="n"/>
       <c r="Q66" s="31" t="inlineStr">
         <is>
-          <t>US Tardy 10:00-14:15 Submit Date: 2024-02-24, Approver: Oluwarotimi Malomo, Hours Submitted: 4.0</t>
+          <t>US Tardy 10:00-14:15</t>
         </is>
       </c>
       <c r="R66" s="32" t="n"/>
@@ -55137,24 +56337,16 @@
       <c r="G68" s="170" t="n"/>
       <c r="H68" s="405" t="n"/>
       <c r="I68" s="404" t="n"/>
-      <c r="J68" s="171" t="inlineStr">
-        <is>
-          <t>Sick</t>
-        </is>
-      </c>
+      <c r="J68" s="171" t="n"/>
       <c r="K68" s="405" t="n"/>
       <c r="L68" s="405" t="n"/>
       <c r="M68" s="404" t="n"/>
-      <c r="N68" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N68" s="170" t="n"/>
       <c r="O68" s="405" t="n"/>
       <c r="P68" s="404" t="n"/>
       <c r="Q68" s="31" t="inlineStr">
         <is>
-          <t>US Absent Unplanned 10:00-20:15 Submit Date: 2024-03-08, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+          <t>US Absent Unplanned 10:00-20:15</t>
         </is>
       </c>
       <c r="R68" s="32" t="n"/>
@@ -55195,24 +56387,16 @@
       <c r="G69" s="170" t="n"/>
       <c r="H69" s="405" t="n"/>
       <c r="I69" s="404" t="n"/>
-      <c r="J69" s="171" t="inlineStr">
-        <is>
-          <t>PTO</t>
-        </is>
-      </c>
+      <c r="J69" s="171" t="n"/>
       <c r="K69" s="405" t="n"/>
       <c r="L69" s="405" t="n"/>
       <c r="M69" s="404" t="n"/>
-      <c r="N69" s="170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="N69" s="170" t="n"/>
       <c r="O69" s="405" t="n"/>
       <c r="P69" s="404" t="n"/>
       <c r="Q69" s="31" t="inlineStr">
         <is>
-          <t>US Partial 16:05-20:15 Submit Date: 2024-03-08, Approver: Oluwarotimi Malomo, Hours Submitted: 5.15</t>
+          <t>US Partial 16:05-20:15</t>
         </is>
       </c>
       <c r="R69" s="32" t="n"/>
@@ -55247,19 +56431,323 @@
           <t>US Tardy</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>US Tardy 10:00-10:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 10:00-20:15 Submit Date: 2024-03-25, Approver: Oluwarotimi Malomo, Hours Submitted: 7.0 Submit Date: 2024-03-25, Approver: Oluwarotimi Malomo, Hours Submitted: 2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 10:00-20:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Holiday Pay</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 10:00-20:15 Submit Date: 2024-04-06, Approver: Oluwarotimi Malomo, Hours Submitted: 10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>US Partial</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>PTO</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="N74" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>US Tardy 10:00-10:53 Submit Date: 2024-03-08, Approver: Oluwarotimi Malomo, Hours Submitted: 1.0</t>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>US Partial 15:35-20:15 Submit Date: 2024-04-07, Approver: Oluwarotimi Malomo, Hours Submitted: 4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>US Tardy 10:00-10:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>US Tardy 10:00-10:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>US Tardy 10:00-10:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 10:00-20:15 Submit Date: 2024-04-19, Approver: Oluwarotimi Malomo, Hours Submitted: 6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 10:00-20:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>US Partial</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>US Partial 16:59-20:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>US Absent Unplanned 10:00-20:15 Submit Date: 2024-04-29, Approver: Oluwarotimi Malomo, Hours Submitted: 4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>US Tardy 10:00-10:41</t>
         </is>
       </c>
     </row>
@@ -55476,7 +56964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
@@ -56302,19 +57790,105 @@
           <t>US Partial</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>US Partial 18:00-22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Holiday Pay</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>US Tardy 11:30-13:30 Submit Date: 2024-03-18, Approver: Oluwarotimi Malomo, Hours Submitted: 2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>Sick</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>US Partial 18:00-22:00 Submit Date: 2024-02-26, Approver: Oluwarotimi Malomo, Hours Submitted: 4.0</t>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>US Tardy 11:30-12:30 Submit Date: 2024-04-15, Approver: Oluwarotimi Malomo, Hours Submitted: 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>US Tardy</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Sick</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>US Tardy 11:30-12:39 Submit Date: 2024-04-22, Approver: Oluwarotimi Malomo, Hours Submitted: 1.0</t>
         </is>
       </c>
     </row>
